--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2171099.329452249</v>
+        <v>-2171836.851850949</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681854</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.8065201724103</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.426157248066</v>
+        <v>234.4261572480661</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9394602487552</v>
       </c>
       <c r="F11" t="n">
-        <v>285.1152879740085</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1492688429794</v>
+        <v>292.1492688429795</v>
       </c>
       <c r="H11" t="n">
-        <v>96.77546686443553</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73160841495373</v>
+        <v>62.73160841495377</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.67916269170993</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47994477460604</v>
+        <v>98.47994477460607</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2570343856665</v>
+        <v>129.2570343856666</v>
       </c>
       <c r="V11" t="n">
-        <v>206.354646015987</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3515414940223</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>61.51275895827814</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.19355010381247</v>
+        <v>43.1935501038125</v>
       </c>
       <c r="C12" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>23.93384806811321</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>33.85485820064147</v>
+        <v>113.9601677324435</v>
       </c>
       <c r="F12" t="n">
-        <v>21.32765657701694</v>
+        <v>21.32765657701697</v>
       </c>
       <c r="G12" t="n">
-        <v>13.56270707968252</v>
+        <v>13.56270707968255</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S12" t="n">
-        <v>153.4606524682653</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T12" t="n">
-        <v>197.246165760451</v>
+        <v>75.06759025391872</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6386291975415</v>
+        <v>102.4600536910092</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.7301555331228</v>
       </c>
       <c r="W12" t="n">
-        <v>127.8107712434677</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.28305410194594</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.90511598415145</v>
+        <v>57.90511598415148</v>
       </c>
       <c r="C13" t="n">
-        <v>45.15797742466998</v>
+        <v>45.15797742467001</v>
       </c>
       <c r="D13" t="n">
-        <v>26.826991007987</v>
+        <v>26.82699100798703</v>
       </c>
       <c r="E13" t="n">
-        <v>24.79604866666682</v>
+        <v>24.79604866666685</v>
       </c>
       <c r="F13" t="n">
-        <v>23.98044590327214</v>
+        <v>23.98044590327217</v>
       </c>
       <c r="G13" t="n">
-        <v>45.4746547785133</v>
+        <v>45.47465477851333</v>
       </c>
       <c r="H13" t="n">
-        <v>37.35405327628415</v>
+        <v>37.35405327628419</v>
       </c>
       <c r="I13" t="n">
-        <v>24.47202221935809</v>
+        <v>24.47202221935812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58502799526198</v>
+        <v>40.58502799526202</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05974488593891</v>
+        <v>96.05974488593894</v>
       </c>
       <c r="T13" t="n">
         <v>105.1439944560723</v>
@@ -1594,7 +1594,7 @@
         <v>103.9617844257769</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.57009836123586</v>
+        <v>96.57009836123589</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5378344848628</v>
+        <v>261.5378344848627</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.1152879740086</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1492688429796</v>
+        <v>292.1492688429794</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73160841495384</v>
+        <v>62.73160841495373</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.67916269171</v>
+        <v>71.67916269170991</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47994477460617</v>
+        <v>98.47994477460604</v>
       </c>
       <c r="U14" t="n">
-        <v>101.3682623913324</v>
+        <v>129.2570343856665</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.354646015987</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3515414940223</v>
+        <v>52.82894120356936</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6830236246371</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.5084962447035</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.19355010381258</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>48.84700842086875</v>
+        <v>48.84700842086863</v>
       </c>
       <c r="D15" t="n">
-        <v>23.93384806811332</v>
+        <v>73.09629435405527</v>
       </c>
       <c r="E15" t="n">
-        <v>33.85485820064159</v>
+        <v>33.85485820064147</v>
       </c>
       <c r="F15" t="n">
-        <v>21.32765657701705</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7412825862149</v>
+        <v>13.56270707968252</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S15" t="n">
-        <v>163.724932038389</v>
+        <v>41.54635653185667</v>
       </c>
       <c r="T15" t="n">
-        <v>186.9818861903266</v>
+        <v>75.06759025391869</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6386291975415</v>
+        <v>102.4600536910092</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>127.8107712434677</v>
       </c>
       <c r="X15" t="n">
-        <v>82.28305410194602</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.90511598415156</v>
+        <v>57.90511598415145</v>
       </c>
       <c r="C16" t="n">
-        <v>45.15797742467009</v>
+        <v>45.15797742466998</v>
       </c>
       <c r="D16" t="n">
-        <v>26.82699100798712</v>
+        <v>26.826991007987</v>
       </c>
       <c r="E16" t="n">
-        <v>24.79604866666693</v>
+        <v>24.79604866666682</v>
       </c>
       <c r="F16" t="n">
-        <v>23.98044590327225</v>
+        <v>23.98044590327214</v>
       </c>
       <c r="G16" t="n">
-        <v>45.47465477851341</v>
+        <v>45.4746547785133</v>
       </c>
       <c r="H16" t="n">
-        <v>37.35405327628426</v>
+        <v>37.35405327628415</v>
       </c>
       <c r="I16" t="n">
-        <v>24.4720222193582</v>
+        <v>24.47202221935809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.5850279952621</v>
+        <v>40.58502799526199</v>
       </c>
       <c r="S16" t="n">
-        <v>96.05974488593903</v>
+        <v>96.05974488593891</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1439944560724</v>
+        <v>105.1439944560723</v>
       </c>
       <c r="U16" t="n">
-        <v>163.8608025948013</v>
+        <v>163.8608025948012</v>
       </c>
       <c r="V16" t="n">
-        <v>130.7577755604069</v>
+        <v>130.7577755604068</v>
       </c>
       <c r="W16" t="n">
-        <v>163.9140013808833</v>
+        <v>163.9140013808832</v>
       </c>
       <c r="X16" t="n">
-        <v>103.961784425777</v>
+        <v>103.9617844257769</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.57009836123598</v>
+        <v>96.57009836123586</v>
       </c>
     </row>
     <row r="17">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>131.479590017335</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I18" t="n">
         <v>76.79682501022856</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.076525884587424</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>8.34662772670103</v>
       </c>
       <c r="W18" t="n">
-        <v>150.1312728284623</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.93725577954612</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6532302850457</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>51.43146465478714</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>48.10881331630352</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H21" t="n">
         <v>107.7396882560888</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S21" t="n">
         <v>163.724932038389</v>
@@ -2214,19 +2214,19 @@
         <v>197.246165760451</v>
       </c>
       <c r="U21" t="n">
-        <v>1.076525884587424</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>8.34662772670103</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>213.0189578512189</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>51.43146465478725</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>29.37424775398506</v>
       </c>
       <c r="W22" t="n">
-        <v>62.53047357446144</v>
+        <v>92.78440670785074</v>
       </c>
       <c r="X22" t="n">
         <v>2.578256619355159</v>
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.26461197910132</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6386291975415</v>
+        <v>1.076525884587424</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>8.34662772670103</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>207.0092303093414</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>50.6158618913925</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>2.578256619355159</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.5904860645917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.6494943059588</v>
+        <v>241.6494943059587</v>
       </c>
       <c r="C26" t="n">
-        <v>224.9181799935064</v>
+        <v>224.9181799935063</v>
       </c>
       <c r="D26" t="n">
-        <v>214.5378170691621</v>
+        <v>214.537817069162</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0511200698512</v>
+        <v>241.0511200698511</v>
       </c>
       <c r="F26" t="n">
-        <v>265.2269477951046</v>
+        <v>265.2269477951045</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2609286640755</v>
+        <v>272.2609286640754</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6806574551714</v>
+        <v>190.6806574551713</v>
       </c>
       <c r="I26" t="n">
-        <v>42.84326823604984</v>
+        <v>42.84326823604972</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.79082251280601</v>
+        <v>51.7908225128059</v>
       </c>
       <c r="T26" t="n">
-        <v>78.59160459570215</v>
+        <v>78.59160459570204</v>
       </c>
       <c r="U26" t="n">
-        <v>109.3686942067627</v>
+        <v>109.3686942067625</v>
       </c>
       <c r="V26" t="n">
-        <v>186.4663058370831</v>
+        <v>186.466305837083</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4632013151183</v>
+        <v>208.4632013151182</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7946834457331</v>
+        <v>228.794683445733</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.6201560657996</v>
+        <v>244.6201560657994</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.30520992490858</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -2646,13 +2646,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>94.02282783043407</v>
       </c>
       <c r="I27" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>163.724932038389</v>
+        <v>21.65801635295267</v>
       </c>
       <c r="T27" t="n">
-        <v>197.246165760451</v>
+        <v>55.17925007501469</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>89.84181535421877</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>138.171262428552</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>61.60423573314978</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.01677580524756</v>
+        <v>38.01677580524745</v>
       </c>
       <c r="C28" t="n">
-        <v>25.26963724576609</v>
+        <v>25.26963724576598</v>
       </c>
       <c r="D28" t="n">
-        <v>6.938650829083116</v>
+        <v>6.938650829083002</v>
       </c>
       <c r="E28" t="n">
-        <v>4.907708487762932</v>
+        <v>4.907708487762818</v>
       </c>
       <c r="F28" t="n">
-        <v>4.092105724368253</v>
+        <v>4.092105724368139</v>
       </c>
       <c r="G28" t="n">
-        <v>25.58631459960941</v>
+        <v>25.5863145996093</v>
       </c>
       <c r="H28" t="n">
-        <v>17.46571309738026</v>
+        <v>17.46571309738015</v>
       </c>
       <c r="I28" t="n">
-        <v>4.583682040454201</v>
+        <v>4.583682040454089</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.6966878163581</v>
+        <v>20.69668781635799</v>
       </c>
       <c r="S28" t="n">
-        <v>76.17140470703502</v>
+        <v>76.17140470703491</v>
       </c>
       <c r="T28" t="n">
-        <v>85.2556542771684</v>
+        <v>85.25565427716829</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9724624158973</v>
+        <v>143.9724624158972</v>
       </c>
       <c r="V28" t="n">
-        <v>110.8694353815029</v>
+        <v>110.8694353815028</v>
       </c>
       <c r="W28" t="n">
-        <v>144.0256612019793</v>
+        <v>144.0256612019792</v>
       </c>
       <c r="X28" t="n">
-        <v>84.07344424687301</v>
+        <v>84.0734442468729</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.68175818233198</v>
+        <v>76.68175818233186</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>214.5378170691621</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0511200698512</v>
+        <v>241.0511200698511</v>
       </c>
       <c r="F29" t="n">
         <v>265.2269477951045</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2609286640755</v>
+        <v>272.2609286640754</v>
       </c>
       <c r="H29" t="n">
-        <v>190.6806574551714</v>
+        <v>190.6806574551713</v>
       </c>
       <c r="I29" t="n">
-        <v>42.84326823604977</v>
+        <v>42.84326823604974</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.79082251280595</v>
+        <v>51.79082251280592</v>
       </c>
       <c r="T29" t="n">
-        <v>78.59160459570209</v>
+        <v>78.59160459570207</v>
       </c>
       <c r="U29" t="n">
         <v>109.3686942067626</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>10.90036972098373</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S30" t="n">
-        <v>21.65801635295273</v>
+        <v>32.16447418325495</v>
       </c>
       <c r="T30" t="n">
-        <v>55.17925007501474</v>
+        <v>55.17925007501471</v>
       </c>
       <c r="U30" t="n">
         <v>224.6386291975415</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.01677580524751</v>
+        <v>38.01677580524748</v>
       </c>
       <c r="C31" t="n">
-        <v>25.26963724576603</v>
+        <v>25.26963724576601</v>
       </c>
       <c r="D31" t="n">
-        <v>6.938650829083059</v>
+        <v>6.938650829083031</v>
       </c>
       <c r="E31" t="n">
-        <v>4.907708487762875</v>
+        <v>4.907708487762847</v>
       </c>
       <c r="F31" t="n">
-        <v>4.092105724368196</v>
+        <v>4.092105724368167</v>
       </c>
       <c r="G31" t="n">
-        <v>25.58631459960935</v>
+        <v>25.58631459960932</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4657130973802</v>
+        <v>17.46571309738017</v>
       </c>
       <c r="I31" t="n">
-        <v>4.583682040454145</v>
+        <v>4.583682040454118</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.69668781635804</v>
+        <v>20.69668781635801</v>
       </c>
       <c r="S31" t="n">
-        <v>76.17140470703497</v>
+        <v>76.17140470703494</v>
       </c>
       <c r="T31" t="n">
-        <v>85.25565427716835</v>
+        <v>85.25565427716832</v>
       </c>
       <c r="U31" t="n">
         <v>143.9724624158972</v>
       </c>
       <c r="V31" t="n">
-        <v>110.8694353815029</v>
+        <v>110.8694353815028</v>
       </c>
       <c r="W31" t="n">
         <v>144.0256612019792</v>
       </c>
       <c r="X31" t="n">
-        <v>84.07344424687295</v>
+        <v>84.07344424687292</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.68175818233192</v>
+        <v>76.68175818233189</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S33" t="n">
-        <v>97.43456485846237</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T33" t="n">
-        <v>55.17925007501477</v>
+        <v>65.68570790531722</v>
       </c>
       <c r="U33" t="n">
         <v>224.6386291975415</v>
@@ -3205,7 +3205,7 @@
         <v>17.46571309738023</v>
       </c>
       <c r="I34" t="n">
-        <v>4.583682040454173</v>
+        <v>4.583682040454175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.19073690091014</v>
+        <v>6.379922509616801</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U36" t="n">
-        <v>48.92812328487962</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>63.57774794802003</v>
       </c>
       <c r="E37" t="n">
-        <v>49.51590168438627</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>96.15614214797867</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>100.2147695361078</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6386291975415</v>
+        <v>1.459638478667613</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3661,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>46.66935657967142</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>29.75736034806525</v>
       </c>
       <c r="W40" t="n">
-        <v>62.91358616854163</v>
+        <v>112.4294878529278</v>
       </c>
       <c r="X40" t="n">
         <v>2.961369213435347</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77708961106046</v>
+        <v>30.77708961106049</v>
       </c>
       <c r="V41" t="n">
         <v>107.8747012413809</v>
       </c>
       <c r="W41" t="n">
-        <v>129.8715967194161</v>
+        <v>129.8715967194162</v>
       </c>
       <c r="X41" t="n">
-        <v>150.2030788500309</v>
+        <v>150.203078850031</v>
       </c>
       <c r="Y41" t="n">
         <v>166.0285514700974</v>
@@ -3828,16 +3828,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>50.20476596827434</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U42" t="n">
-        <v>156.3645054386165</v>
+        <v>3.98010891640311</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>11.25021075851672</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>29.33082646886163</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.664049681466204</v>
+        <v>6.664049681466232</v>
       </c>
       <c r="U43" t="n">
-        <v>65.3808578201951</v>
+        <v>65.38085782019513</v>
       </c>
       <c r="V43" t="n">
-        <v>32.27783078580072</v>
+        <v>32.27783078580075</v>
       </c>
       <c r="W43" t="n">
-        <v>248.5066275117904</v>
+        <v>248.5066275117903</v>
       </c>
       <c r="X43" t="n">
-        <v>5.481839651170816</v>
+        <v>5.481839651170844</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>163.0578897102567</v>
+        <v>163.0578897102566</v>
       </c>
       <c r="C44" t="n">
         <v>146.3265753978042</v>
@@ -3983,10 +3983,10 @@
         <v>135.94621247346</v>
       </c>
       <c r="E44" t="n">
-        <v>162.4595154741491</v>
+        <v>162.459515474149</v>
       </c>
       <c r="F44" t="n">
-        <v>186.6353431994025</v>
+        <v>186.6353431994024</v>
       </c>
       <c r="G44" t="n">
         <v>193.6693240683734</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77708961106051</v>
+        <v>30.77708961106049</v>
       </c>
       <c r="V44" t="n">
-        <v>107.874701241381</v>
+        <v>107.8747012413809</v>
       </c>
       <c r="W44" t="n">
         <v>129.8715967194162</v>
@@ -4101,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.19073690091014</v>
+        <v>8.878164438663994</v>
       </c>
       <c r="S45" t="n">
-        <v>152.3459478188925</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6386291975415</v>
+        <v>3.98010891640311</v>
       </c>
       <c r="V45" t="n">
-        <v>11.25021075851674</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>29.33082646886166</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>20.30896740371885</v>
       </c>
       <c r="T46" t="n">
-        <v>6.664049681466261</v>
+        <v>6.664049681466232</v>
       </c>
       <c r="U46" t="n">
-        <v>65.38085782019516</v>
+        <v>65.38085782019513</v>
       </c>
       <c r="V46" t="n">
-        <v>32.27783078580077</v>
+        <v>32.27783078580075</v>
       </c>
       <c r="W46" t="n">
-        <v>65.43405660627715</v>
+        <v>65.43405660627712</v>
       </c>
       <c r="X46" t="n">
-        <v>5.481839651170873</v>
+        <v>5.481839651170844</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.91354949570862</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1262.302764399483</v>
+        <v>1105.546383462085</v>
       </c>
       <c r="C11" t="n">
-        <v>1015.023451094018</v>
+        <v>1105.546383462085</v>
       </c>
       <c r="D11" t="n">
-        <v>778.2293528636483</v>
+        <v>868.7522852317157</v>
       </c>
       <c r="E11" t="n">
-        <v>778.2293528636483</v>
+        <v>605.1770728592358</v>
       </c>
       <c r="F11" t="n">
-        <v>490.2341124858619</v>
+        <v>605.1770728592358</v>
       </c>
       <c r="G11" t="n">
-        <v>195.1338409272972</v>
+        <v>310.0768013006706</v>
       </c>
       <c r="H11" t="n">
-        <v>97.380844094534</v>
+        <v>97.38084409453407</v>
       </c>
       <c r="I11" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J11" t="n">
-        <v>77.6374468817888</v>
+        <v>77.63744688178879</v>
       </c>
       <c r="K11" t="n">
-        <v>265.2919056666051</v>
+        <v>265.291905666605</v>
       </c>
       <c r="L11" t="n">
-        <v>550.0629334546388</v>
+        <v>550.0629334546386</v>
       </c>
       <c r="M11" t="n">
-        <v>882.1378652296546</v>
+        <v>882.1378652296542</v>
       </c>
       <c r="N11" t="n">
-        <v>1204.068941582173</v>
+        <v>1204.068941582172</v>
       </c>
       <c r="O11" t="n">
-        <v>1461.930976728514</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P11" t="n">
         <v>1640.427675689728</v>
@@ -5066,25 +5066,25 @@
         <v>1700.779153466412</v>
       </c>
       <c r="S11" t="n">
-        <v>1700.779153466412</v>
+        <v>1628.375958828321</v>
       </c>
       <c r="T11" t="n">
-        <v>1601.304461774891</v>
+        <v>1528.9012671368</v>
       </c>
       <c r="U11" t="n">
-        <v>1470.741800779268</v>
+        <v>1398.338606141177</v>
       </c>
       <c r="V11" t="n">
-        <v>1262.302764399483</v>
+        <v>1398.338606141177</v>
       </c>
       <c r="W11" t="n">
-        <v>1262.302764399483</v>
+        <v>1167.680483419942</v>
       </c>
       <c r="X11" t="n">
-        <v>1262.302764399483</v>
+        <v>1167.680483419942</v>
       </c>
       <c r="Y11" t="n">
-        <v>1262.302764399483</v>
+        <v>1105.546383462085</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>300.3839202944345</v>
+        <v>582.2836274141951</v>
       </c>
       <c r="C12" t="n">
-        <v>127.6308052162516</v>
+        <v>409.5305123360122</v>
       </c>
       <c r="D12" t="n">
-        <v>103.4552011070463</v>
+        <v>261.9422056949561</v>
       </c>
       <c r="E12" t="n">
-        <v>69.25837464175193</v>
+        <v>146.8309251571344</v>
       </c>
       <c r="F12" t="n">
-        <v>47.71528719021966</v>
+        <v>125.2878377056021</v>
       </c>
       <c r="G12" t="n">
-        <v>34.01558306932823</v>
+        <v>111.5881335847106</v>
       </c>
       <c r="H12" t="n">
-        <v>34.01558306932823</v>
+        <v>111.5881335847106</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J12" t="n">
-        <v>67.77851149822689</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="K12" t="n">
-        <v>252.0903470956159</v>
+        <v>163.8609485707093</v>
       </c>
       <c r="L12" t="n">
-        <v>560.7699625127622</v>
+        <v>163.8609485707093</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7847083024321</v>
+        <v>576.8756943603792</v>
       </c>
       <c r="N12" t="n">
-        <v>1394.727548785369</v>
+        <v>997.818534843316</v>
       </c>
       <c r="O12" t="n">
-        <v>1583.973050344103</v>
+        <v>1332.105128659001</v>
       </c>
       <c r="P12" t="n">
-        <v>1583.973050344103</v>
+        <v>1583.973050344104</v>
       </c>
       <c r="Q12" t="n">
         <v>1700.779153466412</v>
       </c>
       <c r="R12" t="n">
-        <v>1700.779153466412</v>
+        <v>1622.808712152361</v>
       </c>
       <c r="S12" t="n">
-        <v>1545.768393397457</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T12" t="n">
-        <v>1346.529842124274</v>
+        <v>1381.604144180333</v>
       </c>
       <c r="U12" t="n">
-        <v>1119.622135864131</v>
+        <v>1278.109140452041</v>
       </c>
       <c r="V12" t="n">
-        <v>885.3708923897319</v>
+        <v>1167.270599509493</v>
       </c>
       <c r="W12" t="n">
-        <v>756.2691032549161</v>
+        <v>914.7561078428258</v>
       </c>
       <c r="X12" t="n">
-        <v>549.7422046604936</v>
+        <v>831.6419117802542</v>
       </c>
       <c r="Y12" t="n">
-        <v>344.013768884144</v>
+        <v>625.9134760039046</v>
       </c>
     </row>
     <row r="13">
@@ -5176,28 +5176,28 @@
         <v>264.3814348640266</v>
       </c>
       <c r="C13" t="n">
-        <v>218.7673162532489</v>
+        <v>218.7673162532488</v>
       </c>
       <c r="D13" t="n">
-        <v>191.6693455381106</v>
+        <v>191.6693455381104</v>
       </c>
       <c r="E13" t="n">
-        <v>166.6228317333966</v>
+        <v>166.6228317333964</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4001591038288</v>
+        <v>142.4001591038286</v>
       </c>
       <c r="G13" t="n">
-        <v>96.46616437805778</v>
+        <v>96.46616437805785</v>
       </c>
       <c r="H13" t="n">
-        <v>58.7347974323162</v>
+        <v>58.73479743231624</v>
       </c>
       <c r="I13" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J13" t="n">
-        <v>83.56536698614731</v>
+        <v>83.56536698614724</v>
       </c>
       <c r="K13" t="n">
         <v>217.0814624720375</v>
@@ -5206,22 +5206,22 @@
         <v>409.9134546823794</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2454674020861</v>
+        <v>617.245467402086</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6649322725644</v>
+        <v>827.6649322725642</v>
       </c>
       <c r="O13" t="n">
         <v>1015.918385894576</v>
       </c>
       <c r="P13" t="n">
-        <v>1171.236616050933</v>
+        <v>1171.236616050932</v>
       </c>
       <c r="Q13" t="n">
         <v>1232.824208242338</v>
       </c>
       <c r="R13" t="n">
-        <v>1191.829230469347</v>
+        <v>1191.829230469346</v>
       </c>
       <c r="S13" t="n">
         <v>1094.799185130014</v>
@@ -5230,7 +5230,7 @@
         <v>988.5931301238807</v>
       </c>
       <c r="U13" t="n">
-        <v>823.0771679069096</v>
+        <v>823.0771679069097</v>
       </c>
       <c r="V13" t="n">
         <v>690.9986067347816</v>
@@ -5239,10 +5239,10 @@
         <v>525.4289083702531</v>
       </c>
       <c r="X13" t="n">
-        <v>420.4170049098724</v>
+        <v>420.4170049098723</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8714510096341</v>
+        <v>322.871451009634</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>680.4763560308859</v>
+        <v>605.1770728592358</v>
       </c>
       <c r="C14" t="n">
-        <v>680.4763560308859</v>
+        <v>605.1770728592358</v>
       </c>
       <c r="D14" t="n">
-        <v>680.4763560308859</v>
+        <v>605.1770728592358</v>
       </c>
       <c r="E14" t="n">
-        <v>680.4763560308859</v>
+        <v>605.1770728592358</v>
       </c>
       <c r="F14" t="n">
-        <v>392.4811156530993</v>
+        <v>605.1770728592358</v>
       </c>
       <c r="G14" t="n">
-        <v>97.38084409453413</v>
+        <v>310.0768013006706</v>
       </c>
       <c r="H14" t="n">
-        <v>97.38084409453413</v>
+        <v>97.38084409453396</v>
       </c>
       <c r="I14" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J14" t="n">
         <v>77.6374468817888</v>
       </c>
       <c r="K14" t="n">
-        <v>265.2919056666051</v>
+        <v>260.6481166474516</v>
       </c>
       <c r="L14" t="n">
-        <v>550.0629334546388</v>
+        <v>545.4191444354852</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4940762105007</v>
+        <v>877.4940762105009</v>
       </c>
       <c r="N14" t="n">
         <v>1199.425152563019</v>
@@ -5306,22 +5306,22 @@
         <v>1628.375958828321</v>
       </c>
       <c r="T14" t="n">
-        <v>1528.901267136799</v>
+        <v>1528.9012671368</v>
       </c>
       <c r="U14" t="n">
-        <v>1426.50908290313</v>
+        <v>1398.338606141177</v>
       </c>
       <c r="V14" t="n">
-        <v>1426.50908290313</v>
+        <v>1189.899569761393</v>
       </c>
       <c r="W14" t="n">
-        <v>1195.850960181896</v>
+        <v>1136.5370028891</v>
       </c>
       <c r="X14" t="n">
-        <v>944.6559868236764</v>
+        <v>1136.5370028891</v>
       </c>
       <c r="Y14" t="n">
-        <v>944.6559868236764</v>
+        <v>869.3567036520262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300.3839202944349</v>
+        <v>458.8709248823444</v>
       </c>
       <c r="C15" t="n">
-        <v>251.0435077481029</v>
+        <v>409.5305123360125</v>
       </c>
       <c r="D15" t="n">
-        <v>226.8679036388975</v>
+        <v>335.6958715743405</v>
       </c>
       <c r="E15" t="n">
-        <v>192.6710771736029</v>
+        <v>301.4990451090461</v>
       </c>
       <c r="F15" t="n">
-        <v>171.1279897220705</v>
+        <v>156.5432551256629</v>
       </c>
       <c r="G15" t="n">
-        <v>34.01558306932823</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="H15" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J15" t="n">
-        <v>34.01558306932823</v>
+        <v>67.77851149822689</v>
       </c>
       <c r="K15" t="n">
-        <v>218.3274186667172</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L15" t="n">
-        <v>527.0070340838636</v>
+        <v>560.7699625127622</v>
       </c>
       <c r="M15" t="n">
-        <v>940.0217798735334</v>
+        <v>973.7847083024321</v>
       </c>
       <c r="N15" t="n">
-        <v>1114.624637965624</v>
+        <v>997.818534843316</v>
       </c>
       <c r="O15" t="n">
-        <v>1448.911231781309</v>
+        <v>1332.105128659001</v>
       </c>
       <c r="P15" t="n">
-        <v>1700.779153466412</v>
+        <v>1583.973050344104</v>
       </c>
       <c r="Q15" t="n">
         <v>1700.779153466412</v>
       </c>
       <c r="R15" t="n">
-        <v>1700.779153466412</v>
+        <v>1622.808712152361</v>
       </c>
       <c r="S15" t="n">
-        <v>1535.400434235716</v>
+        <v>1580.842695453516</v>
       </c>
       <c r="T15" t="n">
-        <v>1346.529842124275</v>
+        <v>1505.016846712184</v>
       </c>
       <c r="U15" t="n">
-        <v>1119.622135864132</v>
+        <v>1401.521842983892</v>
       </c>
       <c r="V15" t="n">
-        <v>885.3708923897326</v>
+        <v>1167.270599509493</v>
       </c>
       <c r="W15" t="n">
-        <v>632.8564007230659</v>
+        <v>1038.168810374677</v>
       </c>
       <c r="X15" t="n">
-        <v>549.7422046604942</v>
+        <v>831.6419117802544</v>
       </c>
       <c r="Y15" t="n">
-        <v>344.0137688841446</v>
+        <v>625.9134760039049</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.3814348640275</v>
+        <v>264.3814348640267</v>
       </c>
       <c r="C16" t="n">
-        <v>218.7673162532496</v>
+        <v>218.767316253249</v>
       </c>
       <c r="D16" t="n">
-        <v>191.6693455381111</v>
+        <v>191.6693455381106</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6228317333971</v>
+        <v>166.6228317333966</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4001591038291</v>
+        <v>142.4001591038288</v>
       </c>
       <c r="G16" t="n">
-        <v>96.466164378058</v>
+        <v>96.46616437805778</v>
       </c>
       <c r="H16" t="n">
-        <v>58.73479743231631</v>
+        <v>58.73479743231621</v>
       </c>
       <c r="I16" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J16" t="n">
-        <v>83.56536698614721</v>
+        <v>83.56536698614732</v>
       </c>
       <c r="K16" t="n">
-        <v>217.0814624720374</v>
+        <v>217.0814624720376</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9134546823793</v>
+        <v>409.9134546823796</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2454674020885</v>
+        <v>617.2454674020861</v>
       </c>
       <c r="N16" t="n">
-        <v>827.6649322725667</v>
+        <v>827.6649322725644</v>
       </c>
       <c r="O16" t="n">
-        <v>1015.918385894578</v>
+        <v>1015.918385894576</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.236616050935</v>
+        <v>1171.236616050933</v>
       </c>
       <c r="Q16" t="n">
-        <v>1232.824208242341</v>
+        <v>1232.824208242338</v>
       </c>
       <c r="R16" t="n">
-        <v>1191.829230469348</v>
+        <v>1191.829230469347</v>
       </c>
       <c r="S16" t="n">
-        <v>1094.799185130016</v>
+        <v>1094.799185130014</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5931301238821</v>
+        <v>988.5931301238807</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0771679069111</v>
+        <v>823.0771679069097</v>
       </c>
       <c r="V16" t="n">
-        <v>690.9986067347829</v>
+        <v>690.9986067347817</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4289083702544</v>
+        <v>525.4289083702532</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4170049098735</v>
+        <v>420.4170049098725</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8714510096352</v>
+        <v>322.8714510096343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>963.0100530509077</v>
+        <v>963.0100530509079</v>
       </c>
       <c r="C17" t="n">
-        <v>818.1383435903131</v>
+        <v>818.1383435903134</v>
       </c>
       <c r="D17" t="n">
-        <v>683.7518492048139</v>
+        <v>683.7518492048141</v>
       </c>
       <c r="E17" t="n">
-        <v>522.5842406772044</v>
+        <v>522.5842406772047</v>
       </c>
       <c r="F17" t="n">
-        <v>336.9966041442885</v>
+        <v>336.9966041442888</v>
       </c>
       <c r="G17" t="n">
         <v>144.3039364305945</v>
       </c>
       <c r="H17" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="I17" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J17" t="n">
-        <v>72.99365786263496</v>
+        <v>77.6374468817888</v>
       </c>
       <c r="K17" t="n">
-        <v>260.6481166474512</v>
+        <v>260.6481166474516</v>
       </c>
       <c r="L17" t="n">
-        <v>545.4191444354849</v>
+        <v>545.4191444354852</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4940762105007</v>
+        <v>877.4940762105009</v>
       </c>
       <c r="N17" t="n">
         <v>1199.425152563019</v>
@@ -5549,10 +5549,10 @@
         <v>1672.624096315659</v>
       </c>
       <c r="V17" t="n">
-        <v>1566.592663780744</v>
+        <v>1566.592663780745</v>
       </c>
       <c r="W17" t="n">
-        <v>1438.34214490438</v>
+        <v>1438.342144904381</v>
       </c>
       <c r="X17" t="n">
         <v>1289.554775391032</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>734.4948742844781</v>
+        <v>635.2919648404561</v>
       </c>
       <c r="C18" t="n">
-        <v>561.7417592062952</v>
+        <v>635.2919648404561</v>
       </c>
       <c r="D18" t="n">
-        <v>414.153452565239</v>
+        <v>635.2919648404561</v>
       </c>
       <c r="E18" t="n">
-        <v>256.5439235680938</v>
+        <v>502.4842981562794</v>
       </c>
       <c r="F18" t="n">
-        <v>111.5881335847106</v>
+        <v>357.5285081728962</v>
       </c>
       <c r="G18" t="n">
-        <v>111.5881335847106</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="H18" t="n">
         <v>111.5881335847106</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J18" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="K18" t="n">
-        <v>218.3274186667172</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="L18" t="n">
-        <v>527.0070340838636</v>
+        <v>342.6951984864745</v>
       </c>
       <c r="M18" t="n">
-        <v>576.8756943603789</v>
+        <v>755.7099442761444</v>
       </c>
       <c r="N18" t="n">
-        <v>997.8185348433158</v>
+        <v>1114.624637965624</v>
       </c>
       <c r="O18" t="n">
-        <v>1332.105128659</v>
+        <v>1448.911231781309</v>
       </c>
       <c r="P18" t="n">
-        <v>1583.973050344103</v>
+        <v>1700.779153466412</v>
       </c>
       <c r="Q18" t="n">
         <v>1700.779153466412</v>
@@ -5619,25 +5619,25 @@
         <v>1700.779153466412</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.779153466412</v>
+        <v>1535.400434235716</v>
       </c>
       <c r="T18" t="n">
-        <v>1700.779153466412</v>
+        <v>1535.400434235716</v>
       </c>
       <c r="U18" t="n">
-        <v>1699.69175358299</v>
+        <v>1308.492727975573</v>
       </c>
       <c r="V18" t="n">
-        <v>1465.440510108591</v>
+        <v>1300.061790877895</v>
       </c>
       <c r="W18" t="n">
-        <v>1313.792759776811</v>
+        <v>1047.547299211228</v>
       </c>
       <c r="X18" t="n">
-        <v>1107.265861182388</v>
+        <v>841.0204006168057</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.5374254060386</v>
+        <v>635.2919648404561</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>233.6019326295219</v>
+        <v>233.6019326295218</v>
       </c>
       <c r="C19" t="n">
-        <v>233.6019326295219</v>
+        <v>233.6019326295218</v>
       </c>
       <c r="D19" t="n">
-        <v>203.3622803269501</v>
+        <v>233.6019326295218</v>
       </c>
       <c r="E19" t="n">
-        <v>203.3622803269501</v>
+        <v>233.6019326295218</v>
       </c>
       <c r="F19" t="n">
-        <v>203.3622803269501</v>
+        <v>85.96655746810313</v>
       </c>
       <c r="G19" t="n">
-        <v>34.01558306932823</v>
+        <v>85.96655746810313</v>
       </c>
       <c r="H19" t="n">
-        <v>34.01558306932823</v>
+        <v>85.96655746810313</v>
       </c>
       <c r="I19" t="n">
-        <v>34.01558306932823</v>
+        <v>85.96655746810313</v>
       </c>
       <c r="J19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="K19" t="n">
         <v>46.57488880375151</v>
@@ -5701,22 +5701,22 @@
         <v>395.9460936253114</v>
       </c>
       <c r="T19" t="n">
-        <v>392.1476424640483</v>
+        <v>392.1476424640482</v>
       </c>
       <c r="U19" t="n">
         <v>329.0392840919478</v>
       </c>
       <c r="V19" t="n">
-        <v>299.3683267646902</v>
+        <v>299.3683267646901</v>
       </c>
       <c r="W19" t="n">
-        <v>236.2062322450322</v>
+        <v>236.2062322450321</v>
       </c>
       <c r="X19" t="n">
-        <v>233.6019326295219</v>
+        <v>233.6019326295218</v>
       </c>
       <c r="Y19" t="n">
-        <v>233.6019326295219</v>
+        <v>233.6019326295218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.0100530509078</v>
+        <v>963.0100530509081</v>
       </c>
       <c r="C20" t="n">
         <v>818.1383435903136</v>
@@ -5738,28 +5738,28 @@
         <v>522.5842406772049</v>
       </c>
       <c r="F20" t="n">
-        <v>336.996604144289</v>
+        <v>336.9966041442889</v>
       </c>
       <c r="G20" t="n">
         <v>144.3039364305945</v>
       </c>
       <c r="H20" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="I20" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J20" t="n">
-        <v>77.6374468817888</v>
+        <v>72.99365786263536</v>
       </c>
       <c r="K20" t="n">
-        <v>260.6481166474512</v>
+        <v>260.6481166474516</v>
       </c>
       <c r="L20" t="n">
-        <v>545.4191444354849</v>
+        <v>545.4191444354852</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4940762105007</v>
+        <v>877.4940762105009</v>
       </c>
       <c r="N20" t="n">
         <v>1199.425152563019</v>
@@ -5786,13 +5786,13 @@
         <v>1672.624096315659</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.592663780744</v>
+        <v>1566.592663780745</v>
       </c>
       <c r="W20" t="n">
-        <v>1438.34214490438</v>
+        <v>1438.342144904381</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.554775391031</v>
+        <v>1289.554775391032</v>
       </c>
       <c r="Y20" t="n">
         <v>1124.782079998828</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>269.010862445713</v>
+        <v>807.6821337944807</v>
       </c>
       <c r="C21" t="n">
-        <v>269.010862445713</v>
+        <v>807.6821337944807</v>
       </c>
       <c r="D21" t="n">
-        <v>269.010862445713</v>
+        <v>660.0938271534246</v>
       </c>
       <c r="E21" t="n">
-        <v>269.010862445713</v>
+        <v>502.4842981562794</v>
       </c>
       <c r="F21" t="n">
-        <v>269.010862445713</v>
+        <v>357.5285081728962</v>
       </c>
       <c r="G21" t="n">
         <v>220.4161015201539</v>
@@ -5826,55 +5826,55 @@
         <v>111.5881335847106</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J21" t="n">
-        <v>34.01558306932823</v>
+        <v>67.77851149822689</v>
       </c>
       <c r="K21" t="n">
-        <v>34.01558306932823</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L21" t="n">
-        <v>163.860948570709</v>
+        <v>560.7699625127622</v>
       </c>
       <c r="M21" t="n">
-        <v>576.8756943603789</v>
+        <v>973.7847083024321</v>
       </c>
       <c r="N21" t="n">
-        <v>997.8185348433158</v>
+        <v>997.818534843316</v>
       </c>
       <c r="O21" t="n">
-        <v>1332.105128659</v>
+        <v>1332.105128659001</v>
       </c>
       <c r="P21" t="n">
-        <v>1583.973050344103</v>
+        <v>1583.973050344104</v>
       </c>
       <c r="Q21" t="n">
         <v>1700.779153466412</v>
       </c>
       <c r="R21" t="n">
-        <v>1700.779153466412</v>
+        <v>1622.808712152361</v>
       </c>
       <c r="S21" t="n">
-        <v>1535.400434235716</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T21" t="n">
-        <v>1336.161882962533</v>
+        <v>1258.191441648482</v>
       </c>
       <c r="U21" t="n">
-        <v>1335.074483079111</v>
+        <v>1031.283735388339</v>
       </c>
       <c r="V21" t="n">
-        <v>1100.823239604712</v>
+        <v>1022.852798290661</v>
       </c>
       <c r="W21" t="n">
-        <v>848.3087479380455</v>
+        <v>807.6821337944807</v>
       </c>
       <c r="X21" t="n">
-        <v>641.781849343623</v>
+        <v>807.6821337944807</v>
       </c>
       <c r="Y21" t="n">
-        <v>436.0534135672734</v>
+        <v>807.6821337944807</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>233.6019326295219</v>
+        <v>203.0424042119569</v>
       </c>
       <c r="C22" t="n">
-        <v>181.6509582307469</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="D22" t="n">
-        <v>181.6509582307469</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="E22" t="n">
-        <v>181.6509582307469</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="F22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="G22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="H22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="I22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="J22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932824</v>
       </c>
       <c r="K22" t="n">
         <v>46.57488880375151</v>
@@ -5938,22 +5938,22 @@
         <v>395.9460936253114</v>
       </c>
       <c r="T22" t="n">
-        <v>392.1476424640483</v>
+        <v>392.1476424640482</v>
       </c>
       <c r="U22" t="n">
         <v>329.0392840919478</v>
       </c>
       <c r="V22" t="n">
-        <v>299.3683267646902</v>
+        <v>299.3683267646901</v>
       </c>
       <c r="W22" t="n">
-        <v>236.2062322450322</v>
+        <v>205.6467038274671</v>
       </c>
       <c r="X22" t="n">
-        <v>233.6019326295219</v>
+        <v>203.0424042119569</v>
       </c>
       <c r="Y22" t="n">
-        <v>233.6019326295219</v>
+        <v>203.0424042119569</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>963.0100530509079</v>
+        <v>963.0100530509077</v>
       </c>
       <c r="C23" t="n">
-        <v>818.1383435903134</v>
+        <v>818.1383435903132</v>
       </c>
       <c r="D23" t="n">
-        <v>683.7518492048141</v>
+        <v>683.7518492048139</v>
       </c>
       <c r="E23" t="n">
-        <v>522.5842406772047</v>
+        <v>522.5842406772044</v>
       </c>
       <c r="F23" t="n">
-        <v>336.9966041442888</v>
+        <v>336.9966041442885</v>
       </c>
       <c r="G23" t="n">
         <v>144.3039364305945</v>
       </c>
       <c r="H23" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I23" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J23" t="n">
-        <v>72.99365786263519</v>
+        <v>77.6374468817888</v>
       </c>
       <c r="K23" t="n">
-        <v>260.6481166474514</v>
+        <v>260.6481166474509</v>
       </c>
       <c r="L23" t="n">
-        <v>545.4191444354851</v>
+        <v>545.4191444354846</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4940762105009</v>
+        <v>877.4940762105002</v>
       </c>
       <c r="N23" t="n">
-        <v>1199.425152563019</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O23" t="n">
         <v>1457.28718770936</v>
@@ -6008,25 +6008,25 @@
         <v>1640.427675689728</v>
       </c>
       <c r="Q23" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R23" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S23" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T23" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U23" t="n">
         <v>1672.624096315659</v>
       </c>
       <c r="V23" t="n">
-        <v>1566.592663780745</v>
+        <v>1566.592663780744</v>
       </c>
       <c r="W23" t="n">
-        <v>1438.342144904381</v>
+        <v>1438.34214490438</v>
       </c>
       <c r="X23" t="n">
         <v>1289.554775391032</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34.01558306932824</v>
+        <v>902.8626983572813</v>
       </c>
       <c r="C24" t="n">
-        <v>34.01558306932824</v>
+        <v>730.1095832790984</v>
       </c>
       <c r="D24" t="n">
-        <v>34.01558306932824</v>
+        <v>582.5212766380422</v>
       </c>
       <c r="E24" t="n">
-        <v>34.01558306932824</v>
+        <v>424.9117476408969</v>
       </c>
       <c r="F24" t="n">
-        <v>34.01558306932824</v>
+        <v>279.9559576575137</v>
       </c>
       <c r="G24" t="n">
-        <v>34.01558306932824</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="H24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="L24" t="n">
         <v>342.6951984864745</v>
@@ -6084,34 +6084,34 @@
         <v>1510.939378574766</v>
       </c>
       <c r="P24" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="Q24" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.808712152361</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S24" t="n">
-        <v>1457.429992921665</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T24" t="n">
-        <v>1258.191441648482</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U24" t="n">
-        <v>1031.283735388339</v>
+        <v>1699.69175358299</v>
       </c>
       <c r="V24" t="n">
-        <v>797.03249191394</v>
+        <v>1691.260816485312</v>
       </c>
       <c r="W24" t="n">
-        <v>544.5180002472733</v>
+        <v>1482.160583849613</v>
       </c>
       <c r="X24" t="n">
-        <v>337.9911016528508</v>
+        <v>1275.633685255191</v>
       </c>
       <c r="Y24" t="n">
-        <v>132.2626658765013</v>
+        <v>1069.905249478842</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.01558306932824</v>
+        <v>233.6019326295218</v>
       </c>
       <c r="C25" t="n">
-        <v>34.01558306932824</v>
+        <v>182.474799405893</v>
       </c>
       <c r="D25" t="n">
-        <v>34.01558306932824</v>
+        <v>182.474799405893</v>
       </c>
       <c r="E25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="F25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="G25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K25" t="n">
-        <v>46.57488880375152</v>
+        <v>46.5748888037515</v>
       </c>
       <c r="L25" t="n">
-        <v>118.4500912626265</v>
+        <v>118.4500912626264</v>
       </c>
       <c r="M25" t="n">
         <v>204.825314230866</v>
@@ -6175,22 +6175,22 @@
         <v>395.9460936253114</v>
       </c>
       <c r="T25" t="n">
-        <v>392.1476424640483</v>
+        <v>392.1476424640482</v>
       </c>
       <c r="U25" t="n">
         <v>329.0392840919478</v>
       </c>
       <c r="V25" t="n">
-        <v>299.3683267646902</v>
+        <v>299.3683267646901</v>
       </c>
       <c r="W25" t="n">
-        <v>236.2062322450322</v>
+        <v>236.2062322450321</v>
       </c>
       <c r="X25" t="n">
-        <v>233.6019326295219</v>
+        <v>233.6019326295218</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.01558306932824</v>
+        <v>233.6019326295218</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.926838310267</v>
+        <v>1523.926838310266</v>
       </c>
       <c r="C26" t="n">
         <v>1296.736757508745</v>
@@ -6218,25 +6218,25 @@
         <v>293.6288649853173</v>
       </c>
       <c r="H26" t="n">
-        <v>101.0221402831236</v>
+        <v>101.0221402831235</v>
       </c>
       <c r="I26" t="n">
-        <v>57.74611176186115</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J26" t="n">
-        <v>242.0142221029036</v>
+        <v>242.0142221029037</v>
       </c>
       <c r="K26" t="n">
-        <v>570.3149274163015</v>
+        <v>570.3149274163023</v>
       </c>
       <c r="L26" t="n">
-        <v>995.7322017329172</v>
+        <v>995.7322017329179</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.453380036515</v>
+        <v>1468.453380036516</v>
       </c>
       <c r="N26" t="n">
-        <v>1931.030702917615</v>
+        <v>1931.030702917616</v>
       </c>
       <c r="O26" t="n">
         <v>2329.538984592539</v>
@@ -6248,28 +6248,28 @@
         <v>2854.323443406754</v>
       </c>
       <c r="R26" t="n">
-        <v>2887.305588093057</v>
+        <v>2887.305588093056</v>
       </c>
       <c r="S26" t="n">
         <v>2834.99162595891</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.606166771333</v>
+        <v>2755.606166771332</v>
       </c>
       <c r="U26" t="n">
         <v>2645.132738279653</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.782934403811</v>
+        <v>2456.782934403812</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.21404418652</v>
+        <v>2246.214044186521</v>
       </c>
       <c r="X26" t="n">
         <v>2015.108303332245</v>
       </c>
       <c r="Y26" t="n">
-        <v>1768.017236599114</v>
+        <v>1768.017236599113</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>758.2254029770111</v>
+        <v>912.7378124784456</v>
       </c>
       <c r="C27" t="n">
-        <v>585.4722878988282</v>
+        <v>739.9846974002628</v>
       </c>
       <c r="D27" t="n">
-        <v>437.883981257772</v>
+        <v>592.3963907592067</v>
       </c>
       <c r="E27" t="n">
-        <v>280.2744522606267</v>
+        <v>434.7868617620614</v>
       </c>
       <c r="F27" t="n">
-        <v>135.3186622772435</v>
+        <v>289.8310717786783</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3186622772435</v>
+        <v>152.718665125936</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="I27" t="n">
-        <v>57.74611176186115</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J27" t="n">
-        <v>91.50904019075981</v>
+        <v>91.50904019075978</v>
       </c>
       <c r="K27" t="n">
         <v>275.8208757881488</v>
@@ -6327,28 +6327,28 @@
         <v>2139.820604768483</v>
       </c>
       <c r="R27" t="n">
-        <v>2061.850163454432</v>
+        <v>2139.820604768483</v>
       </c>
       <c r="S27" t="n">
-        <v>1896.471444223736</v>
+        <v>2117.943820573581</v>
       </c>
       <c r="T27" t="n">
-        <v>1697.232892950554</v>
+        <v>2062.207204336193</v>
       </c>
       <c r="U27" t="n">
-        <v>1470.325186690411</v>
+        <v>1835.29949807605</v>
       </c>
       <c r="V27" t="n">
-        <v>1236.073943216011</v>
+        <v>1744.550189637445</v>
       </c>
       <c r="W27" t="n">
-        <v>983.5594515493448</v>
+        <v>1492.035697970778</v>
       </c>
       <c r="X27" t="n">
-        <v>843.9925198033327</v>
+        <v>1285.508799376355</v>
       </c>
       <c r="Y27" t="n">
-        <v>781.7660190627773</v>
+        <v>1079.780363600006</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.4873360289563</v>
+        <v>147.4873360289556</v>
       </c>
       <c r="C28" t="n">
-        <v>121.9624499221219</v>
+        <v>121.9624499221212</v>
       </c>
       <c r="D28" t="n">
-        <v>114.9537117109269</v>
+        <v>114.9537117109263</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9964304101562</v>
+        <v>109.9964304101558</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8629902845317</v>
+        <v>105.8629902845314</v>
       </c>
       <c r="G28" t="n">
-        <v>80.01822806270404</v>
+        <v>80.0182280627038</v>
       </c>
       <c r="H28" t="n">
-        <v>62.3760936209058</v>
+        <v>62.37609362090566</v>
       </c>
       <c r="I28" t="n">
-        <v>57.74611176186115</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J28" t="n">
-        <v>69.98071776152844</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1862700245336</v>
+        <v>70.30541749628441</v>
       </c>
       <c r="L28" t="n">
-        <v>435.7077190119904</v>
+        <v>154.4152259548244</v>
       </c>
       <c r="M28" t="n">
-        <v>522.08294198023</v>
+        <v>381.436695451646</v>
       </c>
       <c r="N28" t="n">
-        <v>752.1918636278232</v>
+        <v>470.8993705706573</v>
       </c>
       <c r="O28" t="n">
-        <v>819.4885274983676</v>
+        <v>678.8422809697837</v>
       </c>
       <c r="P28" t="n">
-        <v>853.8499679032573</v>
+        <v>853.8499679032553</v>
       </c>
       <c r="Q28" t="n">
-        <v>935.1270168717781</v>
+        <v>935.1270168717763</v>
       </c>
       <c r="R28" t="n">
-        <v>914.2212716027295</v>
+        <v>914.2212716027278</v>
       </c>
       <c r="S28" t="n">
-        <v>837.2804587673406</v>
+        <v>837.280458767339</v>
       </c>
       <c r="T28" t="n">
-        <v>751.1636362651503</v>
+        <v>751.1636362651489</v>
       </c>
       <c r="U28" t="n">
-        <v>605.7369065521227</v>
+        <v>605.7369065521214</v>
       </c>
       <c r="V28" t="n">
-        <v>493.747577883938</v>
+        <v>493.7475778839367</v>
       </c>
       <c r="W28" t="n">
-        <v>348.2671120233529</v>
+        <v>348.2671120233517</v>
       </c>
       <c r="X28" t="n">
-        <v>263.3444410669155</v>
+        <v>263.3444410669144</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.8881196706205</v>
+        <v>185.8881196706196</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1080.031891782318</v>
       </c>
       <c r="E29" t="n">
-        <v>836.5459119137813</v>
+        <v>836.5459119137815</v>
       </c>
       <c r="F29" t="n">
-        <v>568.6399040399383</v>
+        <v>568.6399040399385</v>
       </c>
       <c r="G29" t="n">
         <v>293.6288649853168</v>
@@ -6461,7 +6461,7 @@
         <v>57.74611176186114</v>
       </c>
       <c r="J29" t="n">
-        <v>242.0142221029036</v>
+        <v>242.0142221029037</v>
       </c>
       <c r="K29" t="n">
         <v>570.3149274163019</v>
@@ -6494,13 +6494,13 @@
         <v>2755.606166771332</v>
       </c>
       <c r="U29" t="n">
-        <v>2645.132738279652</v>
+        <v>2645.132738279653</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.78293440381</v>
+        <v>2456.782934403811</v>
       </c>
       <c r="W29" t="n">
-        <v>2246.214044186519</v>
+        <v>2246.21404418652</v>
       </c>
       <c r="X29" t="n">
         <v>2015.108303332244</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>769.2358774426511</v>
+        <v>680.6528524616285</v>
       </c>
       <c r="C30" t="n">
-        <v>596.4827623644683</v>
+        <v>507.8997373834457</v>
       </c>
       <c r="D30" t="n">
-        <v>448.8944557234121</v>
+        <v>360.3114307423896</v>
       </c>
       <c r="E30" t="n">
-        <v>291.2849267262668</v>
+        <v>202.7019017452443</v>
       </c>
       <c r="F30" t="n">
-        <v>146.3291367428837</v>
+        <v>57.74611176186114</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186114</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186114</v>
       </c>
       <c r="I30" t="n">
         <v>57.74611176186114</v>
       </c>
       <c r="J30" t="n">
-        <v>91.50904019075979</v>
+        <v>91.50904019075978</v>
       </c>
       <c r="K30" t="n">
         <v>275.8208757881488</v>
@@ -6564,28 +6564,28 @@
         <v>2139.820604768483</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S30" t="n">
-        <v>2117.943820573581</v>
+        <v>2029.360795592559</v>
       </c>
       <c r="T30" t="n">
-        <v>2062.207204336193</v>
+        <v>1973.62417935517</v>
       </c>
       <c r="U30" t="n">
-        <v>1835.29949807605</v>
+        <v>1746.716473095027</v>
       </c>
       <c r="V30" t="n">
-        <v>1601.048254601651</v>
+        <v>1512.465229620628</v>
       </c>
       <c r="W30" t="n">
-        <v>1348.533762934984</v>
+        <v>1259.950737953961</v>
       </c>
       <c r="X30" t="n">
-        <v>1142.006864340561</v>
+        <v>1053.423839359539</v>
       </c>
       <c r="Y30" t="n">
-        <v>936.2784285642116</v>
+        <v>847.695403583189</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.487336028956</v>
+        <v>147.4873360289558</v>
       </c>
       <c r="C31" t="n">
-        <v>121.9624499221216</v>
+        <v>121.9624499221214</v>
       </c>
       <c r="D31" t="n">
-        <v>114.9537117109266</v>
+        <v>114.9537117109264</v>
       </c>
       <c r="E31" t="n">
-        <v>109.996430410156</v>
+        <v>109.9964304101559</v>
       </c>
       <c r="F31" t="n">
         <v>105.8629902845315</v>
       </c>
       <c r="G31" t="n">
-        <v>80.01822806270391</v>
+        <v>80.01822806270386</v>
       </c>
       <c r="H31" t="n">
-        <v>62.37609362090573</v>
+        <v>62.3760936209057</v>
       </c>
       <c r="I31" t="n">
         <v>57.74611176186114</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9853524557951</v>
+        <v>126.9853524557952</v>
       </c>
       <c r="K31" t="n">
-        <v>280.1909047188003</v>
+        <v>280.1909047188004</v>
       </c>
       <c r="L31" t="n">
-        <v>352.0661071776752</v>
+        <v>492.7123537062573</v>
       </c>
       <c r="M31" t="n">
-        <v>438.4413301459148</v>
+        <v>719.7338232030788</v>
       </c>
       <c r="N31" t="n">
-        <v>668.5502517935081</v>
+        <v>809.1964983220902</v>
       </c>
       <c r="O31" t="n">
-        <v>735.8469156640525</v>
+        <v>876.4931621926346</v>
       </c>
       <c r="P31" t="n">
-        <v>853.8499679032565</v>
+        <v>910.8546025975243</v>
       </c>
       <c r="Q31" t="n">
-        <v>935.1270168717774</v>
+        <v>935.1270168717766</v>
       </c>
       <c r="R31" t="n">
-        <v>914.2212716027288</v>
+        <v>914.2212716027282</v>
       </c>
       <c r="S31" t="n">
-        <v>837.28045876734</v>
+        <v>837.2804587673394</v>
       </c>
       <c r="T31" t="n">
-        <v>751.1636362651496</v>
+        <v>751.1636362651492</v>
       </c>
       <c r="U31" t="n">
-        <v>605.7369065521222</v>
+        <v>605.7369065521217</v>
       </c>
       <c r="V31" t="n">
-        <v>493.7475778839374</v>
+        <v>493.747577883937</v>
       </c>
       <c r="W31" t="n">
-        <v>348.2671120233523</v>
+        <v>348.267112023352</v>
       </c>
       <c r="X31" t="n">
-        <v>263.344441066915</v>
+        <v>263.3444410669147</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.8881196706201</v>
+        <v>185.8881196706199</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6698,13 @@
         <v>57.74611176186114</v>
       </c>
       <c r="J32" t="n">
-        <v>242.0142221029035</v>
+        <v>242.0142221029037</v>
       </c>
       <c r="K32" t="n">
-        <v>570.3149274163018</v>
+        <v>570.3149274163019</v>
       </c>
       <c r="L32" t="n">
-        <v>995.7322017329174</v>
+        <v>995.7322017329175</v>
       </c>
       <c r="M32" t="n">
         <v>1468.453380036515</v>
@@ -6719,13 +6719,13 @@
         <v>2653.325719101488</v>
       </c>
       <c r="Q32" t="n">
-        <v>2854.323443406753</v>
+        <v>2854.323443406754</v>
       </c>
       <c r="R32" t="n">
         <v>2887.305588093057</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.99162595891</v>
+        <v>2834.991625958909</v>
       </c>
       <c r="T32" t="n">
         <v>2755.606166771332</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>614.7234679412168</v>
+        <v>537.1509174258342</v>
       </c>
       <c r="C33" t="n">
-        <v>441.9703528630339</v>
+        <v>364.3978023476515</v>
       </c>
       <c r="D33" t="n">
-        <v>294.3820462219778</v>
+        <v>216.8094957065953</v>
       </c>
       <c r="E33" t="n">
-        <v>280.2744522606267</v>
+        <v>202.7019017452443</v>
       </c>
       <c r="F33" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186114</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186114</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186114</v>
       </c>
       <c r="I33" t="n">
         <v>57.74611176186114</v>
       </c>
       <c r="J33" t="n">
-        <v>91.50904019075979</v>
+        <v>91.50904019075978</v>
       </c>
       <c r="K33" t="n">
         <v>275.8208757881488</v>
@@ -6804,25 +6804,25 @@
         <v>2061.850163454432</v>
       </c>
       <c r="S33" t="n">
-        <v>1963.431411072147</v>
+        <v>1896.471444223736</v>
       </c>
       <c r="T33" t="n">
-        <v>1907.694794834758</v>
+        <v>1830.122244319376</v>
       </c>
       <c r="U33" t="n">
-        <v>1680.787088574615</v>
+        <v>1603.214538059233</v>
       </c>
       <c r="V33" t="n">
-        <v>1446.535845100216</v>
+        <v>1368.963294584833</v>
       </c>
       <c r="W33" t="n">
-        <v>1194.021353433549</v>
+        <v>1116.448802918167</v>
       </c>
       <c r="X33" t="n">
-        <v>987.4944548391268</v>
+        <v>909.9219043237442</v>
       </c>
       <c r="Y33" t="n">
-        <v>781.7660190627772</v>
+        <v>704.1934685473947</v>
       </c>
     </row>
     <row r="34">
@@ -6856,25 +6856,25 @@
         <v>57.74611176186114</v>
       </c>
       <c r="J34" t="n">
-        <v>57.74611176186114</v>
+        <v>69.98071776152798</v>
       </c>
       <c r="K34" t="n">
-        <v>163.817072464472</v>
+        <v>82.54002349595126</v>
       </c>
       <c r="L34" t="n">
-        <v>376.3385214519288</v>
+        <v>295.0614724834081</v>
       </c>
       <c r="M34" t="n">
-        <v>603.3599909487504</v>
+        <v>522.0829419802296</v>
       </c>
       <c r="N34" t="n">
-        <v>692.8226660677617</v>
+        <v>611.545617099241</v>
       </c>
       <c r="O34" t="n">
-        <v>900.7655764668881</v>
+        <v>678.8422809697854</v>
       </c>
       <c r="P34" t="n">
-        <v>935.1270168717778</v>
+        <v>853.8499679032569</v>
       </c>
       <c r="Q34" t="n">
         <v>935.1270168717778</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.4267187649575</v>
+        <v>965.426718764958</v>
       </c>
       <c r="C35" t="n">
-        <v>820.1680268861002</v>
+        <v>820.1680268861007</v>
       </c>
       <c r="D35" t="n">
-        <v>685.394550082338</v>
+        <v>685.3945500823386</v>
       </c>
       <c r="E35" t="n">
-        <v>523.8399591364657</v>
+        <v>523.8399591364662</v>
       </c>
       <c r="F35" t="n">
-        <v>337.8653401852869</v>
+        <v>337.8653401852873</v>
       </c>
       <c r="G35" t="n">
         <v>144.7856900533299</v>
@@ -6938,7 +6938,7 @@
         <v>77.73221808626135</v>
       </c>
       <c r="K35" t="n">
-        <v>265.3866768710777</v>
+        <v>265.3866768710776</v>
       </c>
       <c r="L35" t="n">
         <v>550.1577046591113</v>
@@ -6971,10 +6971,10 @@
         <v>1676.975674121023</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.557259167845</v>
+        <v>1570.557259167846</v>
       </c>
       <c r="W35" t="n">
-        <v>1441.919757873218</v>
+        <v>1441.919757873219</v>
       </c>
       <c r="X35" t="n">
         <v>1292.745405941607</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.061304990185</v>
+        <v>206.8634693519836</v>
       </c>
       <c r="C36" t="n">
-        <v>339.3081899120022</v>
+        <v>34.11035427380076</v>
       </c>
       <c r="D36" t="n">
-        <v>191.7198832709461</v>
+        <v>34.11035427380076</v>
       </c>
       <c r="E36" t="n">
         <v>34.11035427380076</v>
@@ -7014,16 +7014,16 @@
         <v>34.11035427380076</v>
       </c>
       <c r="J36" t="n">
-        <v>67.87328270269941</v>
+        <v>34.11035427380076</v>
       </c>
       <c r="K36" t="n">
-        <v>252.1851183000884</v>
+        <v>34.11035427380076</v>
       </c>
       <c r="L36" t="n">
-        <v>560.8647337172347</v>
+        <v>342.789969690947</v>
       </c>
       <c r="M36" t="n">
-        <v>973.8794795069045</v>
+        <v>697.247564050966</v>
       </c>
       <c r="N36" t="n">
         <v>1119.36319818925</v>
@@ -7038,28 +7038,28 @@
         <v>1705.517713690038</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.547272375987</v>
+        <v>1699.073347518708</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.547272375987</v>
+        <v>1699.073347518708</v>
       </c>
       <c r="T36" t="n">
-        <v>1627.547272375987</v>
+        <v>1499.834796245525</v>
       </c>
       <c r="U36" t="n">
-        <v>1578.124925623584</v>
+        <v>1272.927089985382</v>
       </c>
       <c r="V36" t="n">
-        <v>1343.873682149184</v>
+        <v>1038.675846510983</v>
       </c>
       <c r="W36" t="n">
-        <v>1091.359190482518</v>
+        <v>786.1613548443161</v>
       </c>
       <c r="X36" t="n">
-        <v>884.832291888095</v>
+        <v>579.6344562498936</v>
       </c>
       <c r="Y36" t="n">
-        <v>679.1038561117455</v>
+        <v>373.906020473544</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.7617917426803</v>
+        <v>171.187158990858</v>
       </c>
       <c r="C37" t="n">
-        <v>231.7617917426803</v>
+        <v>171.187158990858</v>
       </c>
       <c r="D37" t="n">
-        <v>231.7617917426803</v>
+        <v>106.9672115686155</v>
       </c>
       <c r="E37" t="n">
-        <v>181.7457294352195</v>
+        <v>106.9672115686155</v>
       </c>
       <c r="F37" t="n">
-        <v>34.11035427380076</v>
+        <v>106.9672115686155</v>
       </c>
       <c r="G37" t="n">
-        <v>34.11035427380076</v>
+        <v>106.9672115686155</v>
       </c>
       <c r="H37" t="n">
-        <v>34.11035427380076</v>
+        <v>106.9672115686155</v>
       </c>
       <c r="I37" t="n">
-        <v>34.11035427380076</v>
+        <v>106.9672115686155</v>
       </c>
       <c r="J37" t="n">
         <v>34.11035427380076</v>
@@ -7102,43 +7102,43 @@
         <v>118.544862467099</v>
       </c>
       <c r="M37" t="n">
-        <v>204.9200854353386</v>
+        <v>204.9200854353385</v>
       </c>
       <c r="N37" t="n">
         <v>294.3827605543499</v>
       </c>
       <c r="O37" t="n">
-        <v>361.6794244248944</v>
+        <v>361.6794244248943</v>
       </c>
       <c r="P37" t="n">
-        <v>396.040864829784</v>
+        <v>396.0408648297839</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.040864829784</v>
+        <v>335.4662320779616</v>
       </c>
       <c r="R37" t="n">
-        <v>396.040864829784</v>
+        <v>335.4662320779616</v>
       </c>
       <c r="S37" t="n">
-        <v>396.040864829784</v>
+        <v>335.4662320779616</v>
       </c>
       <c r="T37" t="n">
-        <v>391.855431250258</v>
+        <v>331.2807984984356</v>
       </c>
       <c r="U37" t="n">
-        <v>328.3600904598947</v>
+        <v>267.7854577080723</v>
       </c>
       <c r="V37" t="n">
-        <v>298.3021507143742</v>
+        <v>237.7275179625519</v>
       </c>
       <c r="W37" t="n">
-        <v>234.7530737764534</v>
+        <v>174.178441024631</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7617917426803</v>
+        <v>171.187158990858</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.7617917426803</v>
+        <v>171.187158990858</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4267187649573</v>
+        <v>965.4267187649575</v>
       </c>
       <c r="C38" t="n">
         <v>820.1680268861003</v>
@@ -7172,16 +7172,16 @@
         <v>34.11035427380076</v>
       </c>
       <c r="J38" t="n">
-        <v>77.73221808626135</v>
+        <v>77.73221808626133</v>
       </c>
       <c r="K38" t="n">
-        <v>265.3866768710777</v>
+        <v>265.3866768710776</v>
       </c>
       <c r="L38" t="n">
-        <v>550.1577046591113</v>
+        <v>550.1577046591112</v>
       </c>
       <c r="M38" t="n">
-        <v>882.232636434127</v>
+        <v>882.2326364341269</v>
       </c>
       <c r="N38" t="n">
         <v>1204.163712786645</v>
@@ -7190,7 +7190,7 @@
         <v>1462.025747932986</v>
       </c>
       <c r="P38" t="n">
-        <v>1645.166235913355</v>
+        <v>1645.166235913354</v>
       </c>
       <c r="Q38" t="n">
         <v>1705.517713690038</v>
@@ -7205,19 +7205,19 @@
         <v>1705.517713690038</v>
       </c>
       <c r="U38" t="n">
-        <v>1676.975674121022</v>
+        <v>1676.975674121023</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.557259167845</v>
+        <v>1570.557259167846</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.919757873218</v>
+        <v>1441.919757873219</v>
       </c>
       <c r="X38" t="n">
         <v>1292.745405941607</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.58572813114</v>
+        <v>1127.585728131141</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.11035427380076</v>
+        <v>637.9797107549549</v>
       </c>
       <c r="C39" t="n">
-        <v>34.11035427380076</v>
+        <v>465.2265956767721</v>
       </c>
       <c r="D39" t="n">
-        <v>34.11035427380076</v>
+        <v>317.638289035716</v>
       </c>
       <c r="E39" t="n">
-        <v>34.11035427380076</v>
+        <v>317.638289035716</v>
       </c>
       <c r="F39" t="n">
-        <v>34.11035427380076</v>
+        <v>317.638289035716</v>
       </c>
       <c r="G39" t="n">
-        <v>34.11035427380076</v>
+        <v>220.5108727246264</v>
       </c>
       <c r="H39" t="n">
-        <v>34.11035427380076</v>
+        <v>111.6829047891831</v>
       </c>
       <c r="I39" t="n">
         <v>34.11035427380076</v>
@@ -7260,13 +7260,13 @@
         <v>342.789969690947</v>
       </c>
       <c r="M39" t="n">
-        <v>697.247564050966</v>
+        <v>755.8047154806169</v>
       </c>
       <c r="N39" t="n">
-        <v>1119.36319818925</v>
+        <v>1177.920349618901</v>
       </c>
       <c r="O39" t="n">
-        <v>1453.649792004935</v>
+        <v>1512.206943434586</v>
       </c>
       <c r="P39" t="n">
         <v>1705.517713690038</v>
@@ -7275,28 +7275,28 @@
         <v>1705.517713690038</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.547272375987</v>
+        <v>1705.517713690038</v>
       </c>
       <c r="S39" t="n">
-        <v>1526.320232440525</v>
+        <v>1705.517713690038</v>
       </c>
       <c r="T39" t="n">
-        <v>1327.081681167342</v>
+        <v>1705.517713690038</v>
       </c>
       <c r="U39" t="n">
-        <v>1100.173974907199</v>
+        <v>1704.043331388353</v>
       </c>
       <c r="V39" t="n">
-        <v>865.9227314327999</v>
+        <v>1469.792087913954</v>
       </c>
       <c r="W39" t="n">
-        <v>613.4082397661332</v>
+        <v>1217.277596247287</v>
       </c>
       <c r="X39" t="n">
-        <v>406.8813411717107</v>
+        <v>1010.750697652865</v>
       </c>
       <c r="Y39" t="n">
-        <v>201.1529053953612</v>
+        <v>805.0222618765154</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.7617917426803</v>
+        <v>181.7457294352195</v>
       </c>
       <c r="C40" t="n">
-        <v>184.62102752079</v>
+        <v>181.7457294352195</v>
       </c>
       <c r="D40" t="n">
-        <v>34.11035427380076</v>
+        <v>181.7457294352195</v>
       </c>
       <c r="E40" t="n">
-        <v>34.11035427380076</v>
+        <v>181.7457294352195</v>
       </c>
       <c r="F40" t="n">
         <v>34.11035427380076</v>
@@ -7339,43 +7339,43 @@
         <v>118.544862467099</v>
       </c>
       <c r="M40" t="n">
-        <v>204.9200854353386</v>
+        <v>204.9200854353385</v>
       </c>
       <c r="N40" t="n">
         <v>294.3827605543499</v>
       </c>
       <c r="O40" t="n">
-        <v>361.6794244248944</v>
+        <v>361.6794244248943</v>
       </c>
       <c r="P40" t="n">
-        <v>396.040864829784</v>
+        <v>396.0408648297839</v>
       </c>
       <c r="Q40" t="n">
-        <v>396.040864829784</v>
+        <v>396.0408648297839</v>
       </c>
       <c r="R40" t="n">
-        <v>396.040864829784</v>
+        <v>396.0408648297839</v>
       </c>
       <c r="S40" t="n">
-        <v>396.040864829784</v>
+        <v>396.0408648297839</v>
       </c>
       <c r="T40" t="n">
-        <v>391.855431250258</v>
+        <v>391.8554312502579</v>
       </c>
       <c r="U40" t="n">
-        <v>328.3600904598947</v>
+        <v>328.3600904598946</v>
       </c>
       <c r="V40" t="n">
         <v>298.3021507143742</v>
       </c>
       <c r="W40" t="n">
-        <v>234.7530737764534</v>
+        <v>184.7370114689925</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7617917426803</v>
+        <v>181.7457294352195</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.7617917426803</v>
+        <v>181.7457294352195</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.3257901718234</v>
+        <v>981.325790171823</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5211685578799</v>
+        <v>833.5211685578793</v>
       </c>
       <c r="D41" t="n">
-        <v>696.2017620190318</v>
+        <v>696.2017620190309</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1012413380731</v>
+        <v>532.1012413380722</v>
       </c>
       <c r="F41" t="n">
-        <v>343.580692651808</v>
+        <v>343.5806926518071</v>
       </c>
       <c r="G41" t="n">
         <v>147.9551127847639</v>
       </c>
       <c r="H41" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="I41" t="n">
-        <v>65.28500409118524</v>
+        <v>38.75222982911656</v>
       </c>
       <c r="J41" t="n">
-        <v>108.9068679036458</v>
+        <v>82.37409364157713</v>
       </c>
       <c r="K41" t="n">
-        <v>296.5613266884621</v>
+        <v>270.0285524263934</v>
       </c>
       <c r="L41" t="n">
-        <v>581.3323544764958</v>
+        <v>554.799580214427</v>
       </c>
       <c r="M41" t="n">
-        <v>913.4072862515116</v>
+        <v>886.8745119894427</v>
       </c>
       <c r="N41" t="n">
-        <v>1235.33836260403</v>
+        <v>1208.805588341961</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.200397750371</v>
+        <v>1466.667623488302</v>
       </c>
       <c r="P41" t="n">
-        <v>1676.340885730739</v>
+        <v>1649.80811146867</v>
       </c>
       <c r="Q41" t="n">
-        <v>1736.692363507422</v>
+        <v>1710.159589245354</v>
       </c>
       <c r="R41" t="n">
-        <v>1736.692363507422</v>
+        <v>1710.159589245354</v>
       </c>
       <c r="S41" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507421</v>
       </c>
       <c r="T41" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507421</v>
       </c>
       <c r="U41" t="n">
         <v>1705.60439420332</v>
       </c>
       <c r="V41" t="n">
-        <v>1596.640049515057</v>
+        <v>1596.640049515056</v>
       </c>
       <c r="W41" t="n">
-        <v>1465.456618485344</v>
+        <v>1465.456618485343</v>
       </c>
       <c r="X41" t="n">
-        <v>1313.736336818646</v>
+        <v>1313.736336818645</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.030729273093</v>
+        <v>1146.030729273092</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.6847979865327</v>
+        <v>954.29284737454</v>
       </c>
       <c r="C42" t="n">
-        <v>339.9316829083499</v>
+        <v>781.5397322963572</v>
       </c>
       <c r="D42" t="n">
-        <v>192.3433762672938</v>
+        <v>633.9514256553011</v>
       </c>
       <c r="E42" t="n">
-        <v>34.73384727014845</v>
+        <v>476.3418966581559</v>
       </c>
       <c r="F42" t="n">
-        <v>34.73384727014845</v>
+        <v>331.3861066747727</v>
       </c>
       <c r="G42" t="n">
-        <v>34.73384727014845</v>
+        <v>194.2737000220304</v>
       </c>
       <c r="H42" t="n">
-        <v>34.73384727014845</v>
+        <v>85.44573208658714</v>
       </c>
       <c r="I42" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="J42" t="n">
-        <v>34.73384727014845</v>
+        <v>68.49677569904706</v>
       </c>
       <c r="K42" t="n">
-        <v>219.0456828675375</v>
+        <v>252.8086112964361</v>
       </c>
       <c r="L42" t="n">
-        <v>527.7252982846837</v>
+        <v>561.4882267135823</v>
       </c>
       <c r="M42" t="n">
-        <v>940.7400440743536</v>
+        <v>974.5029725032523</v>
       </c>
       <c r="N42" t="n">
-        <v>1033.731744884327</v>
+        <v>1033.731744884325</v>
       </c>
       <c r="O42" t="n">
-        <v>1368.018338700011</v>
+        <v>1368.01833870001</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.886260385114</v>
+        <v>1619.886260385113</v>
       </c>
       <c r="Q42" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507421</v>
       </c>
       <c r="R42" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507421</v>
       </c>
       <c r="S42" t="n">
-        <v>1736.692363507422</v>
+        <v>1571.313644276725</v>
       </c>
       <c r="T42" t="n">
-        <v>1736.692363507422</v>
+        <v>1372.075093003542</v>
       </c>
       <c r="U42" t="n">
-        <v>1578.748418619931</v>
+        <v>1368.054780966771</v>
       </c>
       <c r="V42" t="n">
-        <v>1344.497175145532</v>
+        <v>1356.690931715744</v>
       </c>
       <c r="W42" t="n">
-        <v>1091.982683478865</v>
+        <v>1327.06383427245</v>
       </c>
       <c r="X42" t="n">
-        <v>885.4557848844427</v>
+        <v>1327.06383427245</v>
       </c>
       <c r="Y42" t="n">
-        <v>679.7273491080931</v>
+        <v>1121.3353984961</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="C43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="D43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="E43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="F43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="G43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="H43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="I43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="J43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="K43" t="n">
-        <v>47.29315300457174</v>
+        <v>47.29315300457169</v>
       </c>
       <c r="L43" t="n">
-        <v>119.1683554634467</v>
+        <v>119.1683554634466</v>
       </c>
       <c r="M43" t="n">
-        <v>205.5435784316863</v>
+        <v>205.5435784316862</v>
       </c>
       <c r="N43" t="n">
-        <v>295.0062535506976</v>
+        <v>295.0062535506975</v>
       </c>
       <c r="O43" t="n">
-        <v>362.302917421242</v>
+        <v>362.3029174212419</v>
       </c>
       <c r="P43" t="n">
-        <v>396.6643578261316</v>
+        <v>396.6643578261315</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.6643578261316</v>
+        <v>396.6643578261315</v>
       </c>
       <c r="R43" t="n">
-        <v>396.6643578261316</v>
+        <v>396.6643578261315</v>
       </c>
       <c r="S43" t="n">
-        <v>396.6643578261316</v>
+        <v>396.6643578261315</v>
       </c>
       <c r="T43" t="n">
-        <v>389.9329945115193</v>
+        <v>389.9329945115192</v>
       </c>
       <c r="U43" t="n">
-        <v>323.8917239860697</v>
+        <v>323.8917239860696</v>
       </c>
       <c r="V43" t="n">
-        <v>291.2878545054629</v>
+        <v>291.2878545054627</v>
       </c>
       <c r="W43" t="n">
-        <v>40.27105903900786</v>
+        <v>40.27105903900785</v>
       </c>
       <c r="X43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014842</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>981.325790171824</v>
+        <v>981.3257901718241</v>
       </c>
       <c r="C44" t="n">
         <v>833.5211685578804</v>
@@ -7640,34 +7640,34 @@
         <v>147.9551127847639</v>
       </c>
       <c r="H44" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I44" t="n">
-        <v>38.75222982911797</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J44" t="n">
-        <v>82.37409364157855</v>
+        <v>78.35571108260902</v>
       </c>
       <c r="K44" t="n">
-        <v>270.0285524263948</v>
+        <v>266.0101698674252</v>
       </c>
       <c r="L44" t="n">
-        <v>554.7995802144285</v>
+        <v>550.7811976554589</v>
       </c>
       <c r="M44" t="n">
-        <v>886.8745119894443</v>
+        <v>882.8561294304745</v>
       </c>
       <c r="N44" t="n">
-        <v>1208.805588341962</v>
+        <v>1204.787205782993</v>
       </c>
       <c r="O44" t="n">
-        <v>1466.667623488304</v>
+        <v>1462.649240929334</v>
       </c>
       <c r="P44" t="n">
-        <v>1649.808111468672</v>
+        <v>1645.789728909702</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.159589245355</v>
+        <v>1706.141206686385</v>
       </c>
       <c r="R44" t="n">
         <v>1710.159589245355</v>
@@ -7682,7 +7682,7 @@
         <v>1705.604394203321</v>
       </c>
       <c r="V44" t="n">
-        <v>1596.640049515058</v>
+        <v>1596.640049515057</v>
       </c>
       <c r="W44" t="n">
         <v>1465.456618485344</v>
@@ -7713,55 +7713,55 @@
         <v>179.6896372535316</v>
       </c>
       <c r="F45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="G45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="H45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="K45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="L45" t="n">
-        <v>190.8856391265696</v>
+        <v>343.4134626872947</v>
       </c>
       <c r="M45" t="n">
-        <v>603.9003849162395</v>
+        <v>756.4282084769645</v>
       </c>
       <c r="N45" t="n">
-        <v>1033.731744884327</v>
+        <v>1186.259568445052</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.018338700011</v>
+        <v>1520.546162260736</v>
       </c>
       <c r="P45" t="n">
-        <v>1619.886260385114</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="Q45" t="n">
         <v>1736.692363507422</v>
       </c>
       <c r="R45" t="n">
-        <v>1658.721922193372</v>
+        <v>1727.724520640085</v>
       </c>
       <c r="S45" t="n">
-        <v>1504.837126416713</v>
+        <v>1727.724520640085</v>
       </c>
       <c r="T45" t="n">
-        <v>1504.837126416713</v>
+        <v>1727.724520640085</v>
       </c>
       <c r="U45" t="n">
-        <v>1277.92942015657</v>
+        <v>1723.704208603314</v>
       </c>
       <c r="V45" t="n">
-        <v>1266.565570905543</v>
+        <v>1489.452965128915</v>
       </c>
       <c r="W45" t="n">
         <v>1236.938473462248</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="C46" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="D46" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="E46" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="F46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="G46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="H46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="K46" t="n">
-        <v>47.29315300457174</v>
+        <v>47.29315300457172</v>
       </c>
       <c r="L46" t="n">
         <v>119.1683554634467</v>
       </c>
       <c r="M46" t="n">
-        <v>205.5435784316863</v>
+        <v>205.5435784316862</v>
       </c>
       <c r="N46" t="n">
         <v>295.0062535506976</v>
@@ -7828,28 +7828,28 @@
         <v>396.6643578261316</v>
       </c>
       <c r="R46" t="n">
-        <v>396.6643578261316</v>
+        <v>232.2566775212888</v>
       </c>
       <c r="S46" t="n">
-        <v>396.6643578261316</v>
+        <v>211.7425690326839</v>
       </c>
       <c r="T46" t="n">
-        <v>389.9329945115192</v>
+        <v>205.0112057180716</v>
       </c>
       <c r="U46" t="n">
-        <v>323.8917239860696</v>
+        <v>138.9699351926219</v>
       </c>
       <c r="V46" t="n">
-        <v>291.2878545054627</v>
+        <v>106.3660657120151</v>
       </c>
       <c r="W46" t="n">
-        <v>225.1928478324555</v>
+        <v>40.27105903900788</v>
       </c>
       <c r="X46" t="n">
-        <v>219.6556360635961</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014844</v>
       </c>
     </row>
   </sheetData>
@@ -8702,10 +8702,10 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>396.0321885132552</v>
+        <v>391.3414925343127</v>
       </c>
       <c r="P11" t="n">
-        <v>329.9799605193986</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8766,25 +8766,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>220.0272100324677</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>73.87636778514678</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.928282784482</v>
+        <v>479.9282827844821</v>
       </c>
       <c r="O12" t="n">
-        <v>263.1106582528993</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>76.78923727937014</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -8927,13 +8927,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>332.4205330950685</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>462.8033788536026</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.03070864402653</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9015,7 +9015,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1000177432232</v>
+        <v>79.01008688341838</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9024,7 +9024,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>171.1697838000134</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1112290740114</v>
+        <v>332.4205330950685</v>
       </c>
       <c r="L17" t="n">
         <v>434.3676631324684</v>
@@ -9240,19 +9240,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.03070864402653</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>88.87027518258785</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>117.5190385089347</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.928282784482</v>
+        <v>417.2735890537174</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9261,7 +9261,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>100.4944164954767</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>171.1697838000138</v>
       </c>
       <c r="K20" t="n">
-        <v>332.4205330950681</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
         <v>434.3676631324684</v>
@@ -9477,19 +9477,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>97.03070864402653</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>88.87027518258785</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>205.0333026350264</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.928282784482</v>
+        <v>79.01008688341838</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>171.1697838000136</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>332.4205330950678</v>
       </c>
       <c r="L23" t="n">
         <v>434.3676631324684</v>
@@ -9714,7 +9714,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.03070864402653</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K24" t="n">
         <v>88.87027518258785</v>
@@ -9726,13 +9726,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.9282827844821</v>
+        <v>479.9282827844819</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>268.5465856547701</v>
+        <v>268.5465856547696</v>
       </c>
       <c r="Q24" t="n">
         <v>100.4944164954767</v>
@@ -10662,19 +10662,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>88.87027518258785</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>484.3332662999999</v>
+        <v>425.1846284922718</v>
       </c>
       <c r="N36" t="n">
-        <v>201.6867456121679</v>
+        <v>481.1129228403886</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.03070864402653</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K39" t="n">
         <v>88.87027518258785</v>
@@ -10908,7 +10908,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>425.1846284922718</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
         <v>481.1129228403886</v>
@@ -10917,7 +10917,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>272.0526415778064</v>
       </c>
       <c r="Q39" t="n">
         <v>100.4944164954767</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>97.03070864402653</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11148,7 +11148,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>148.6645053370438</v>
+        <v>114.5605372270435</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11373,13 +11373,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>97.03070864402653</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K45" t="n">
         <v>88.87027518258785</v>
       </c>
       <c r="L45" t="n">
-        <v>231.6054504684005</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
@@ -11391,10 +11391,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>295.1187334881438</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>100.4944164954767</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23258,22 +23258,22 @@
         <v>261.5378344848627</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.8065201724103</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9394602487551</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.1152879740085</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>113.7935307696398</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.67916269170989</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.354646015987</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3515414940222</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.683023624637</v>
+        <v>248.6830236246371</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.5084962447035</v>
+        <v>202.9957372864253</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.8065201724104</v>
+        <v>244.8065201724103</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4261572480661</v>
+        <v>234.426157248066</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9394602487552</v>
+        <v>260.9394602487551</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.1152879740085</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5689976340754</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>27.88877199433426</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3546460159871</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>175.5226002904529</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.683023624637</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.5084962447036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1190364.009249809</v>
+        <v>1190364.009249808</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1190364.009249808</v>
+        <v>1190364.009249809</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26317,7 @@
         <v>223343.0038828286</v>
       </c>
       <c r="D2" t="n">
-        <v>223343.0038828287</v>
+        <v>223343.0038828286</v>
       </c>
       <c r="E2" t="n">
         <v>192098.4345142758</v>
@@ -26326,7 +26326,7 @@
         <v>192098.4345142758</v>
       </c>
       <c r="G2" t="n">
-        <v>223827.8373691074</v>
+        <v>223827.8373691075</v>
       </c>
       <c r="H2" t="n">
         <v>223827.8373691075</v>
@@ -26335,25 +26335,25 @@
         <v>223827.8373691075</v>
       </c>
       <c r="J2" t="n">
-        <v>223827.8373691076</v>
+        <v>223827.8373691078</v>
       </c>
       <c r="K2" t="n">
         <v>223827.8373691077</v>
       </c>
       <c r="L2" t="n">
-        <v>223827.8373691076</v>
+        <v>223827.8373691075</v>
       </c>
       <c r="M2" t="n">
         <v>223827.8373691075</v>
       </c>
       <c r="N2" t="n">
+        <v>223827.8373691076</v>
+      </c>
+      <c r="O2" t="n">
         <v>223827.8373691075</v>
       </c>
-      <c r="O2" t="n">
-        <v>223827.8373691074</v>
-      </c>
       <c r="P2" t="n">
-        <v>223827.8373691075</v>
+        <v>223827.8373691076</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>329999.9964321819</v>
+        <v>329999.9964321817</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>81106.82224513747</v>
+        <v>81106.82224513739</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110158.5909185751</v>
+        <v>110158.5909185752</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>81106.82224513746</v>
+        <v>81106.82224513734</v>
       </c>
       <c r="M3" t="n">
-        <v>97223.33570367852</v>
+        <v>97223.33570367855</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32405.88661632408</v>
+        <v>32405.88661632403</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>437925.5187494541</v>
       </c>
       <c r="E4" t="n">
-        <v>313065.3713775415</v>
+        <v>313065.3713775416</v>
       </c>
       <c r="F4" t="n">
-        <v>313065.3713775415</v>
+        <v>313065.3713775416</v>
       </c>
       <c r="G4" t="n">
         <v>378659.407041549</v>
@@ -26439,25 +26439,25 @@
         <v>378659.407041549</v>
       </c>
       <c r="J4" t="n">
-        <v>378057.7732182546</v>
+        <v>378057.7732182547</v>
       </c>
       <c r="K4" t="n">
         <v>378057.7732182547</v>
       </c>
       <c r="L4" t="n">
-        <v>378057.7732182547</v>
+        <v>378057.7732182546</v>
       </c>
       <c r="M4" t="n">
-        <v>378597.6546157301</v>
+        <v>378597.6546157302</v>
       </c>
       <c r="N4" t="n">
         <v>378597.6546157301</v>
       </c>
       <c r="O4" t="n">
-        <v>378488.0464557405</v>
+        <v>378488.0464557403</v>
       </c>
       <c r="P4" t="n">
-        <v>378488.0464557403</v>
+        <v>378488.0464557404</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>38980.63494425714</v>
       </c>
       <c r="F5" t="n">
-        <v>38980.63494425713</v>
+        <v>38980.63494425714</v>
       </c>
       <c r="G5" t="n">
         <v>47503.84674341521</v>
@@ -26488,10 +26488,10 @@
         <v>47503.84674341521</v>
       </c>
       <c r="I5" t="n">
-        <v>47503.84674341521</v>
+        <v>47503.8467434152</v>
       </c>
       <c r="J5" t="n">
-        <v>58687.82962108243</v>
+        <v>58687.82962108242</v>
       </c>
       <c r="K5" t="n">
         <v>58687.82962108243</v>
@@ -26506,7 +26506,7 @@
         <v>47543.66496614261</v>
       </c>
       <c r="O5" t="n">
-        <v>47805.62621413686</v>
+        <v>47805.62621413684</v>
       </c>
       <c r="P5" t="n">
         <v>47805.62621413686</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248210.1148666255</v>
+        <v>-248214.5224437735</v>
       </c>
       <c r="C6" t="n">
-        <v>-248210.1148666255</v>
+        <v>-248214.5224437735</v>
       </c>
       <c r="D6" t="n">
-        <v>-248210.1148666255</v>
+        <v>-248214.5224437735</v>
       </c>
       <c r="E6" t="n">
-        <v>-489947.5682397048</v>
+        <v>-490236.0173565668</v>
       </c>
       <c r="F6" t="n">
-        <v>-159947.5718075227</v>
+        <v>-160236.020924385</v>
       </c>
       <c r="G6" t="n">
-        <v>-283442.2386609942</v>
+        <v>-283442.2386609941</v>
       </c>
       <c r="H6" t="n">
         <v>-202335.4164158567</v>
@@ -26549,16 +26549,16 @@
         <v>-212917.7654702294</v>
       </c>
       <c r="L6" t="n">
-        <v>-294024.587715367</v>
+        <v>-294024.5877153669</v>
       </c>
       <c r="M6" t="n">
-        <v>-299536.8179164437</v>
+        <v>-299536.8179164438</v>
       </c>
       <c r="N6" t="n">
-        <v>-202313.4822127652</v>
+        <v>-202313.4822127651</v>
       </c>
       <c r="O6" t="n">
-        <v>-234871.721917094</v>
+        <v>-234871.7219170937</v>
       </c>
       <c r="P6" t="n">
         <v>-202465.8353007697</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>122.1785755065323</v>
+      </c>
+      <c r="F2" t="n">
         <v>122.1785755065324</v>
-      </c>
-      <c r="F2" t="n">
-        <v>122.1785755065322</v>
       </c>
       <c r="G2" t="n">
         <v>223.5621033129541</v>
@@ -26707,7 +26707,7 @@
         <v>223.5621033129541</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K2" t="n">
         <v>142.0669156854363</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618815</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="F3" t="n">
         <v>131.0716122618815</v>
@@ -26808,10 +26808,10 @@
         <v>425.1947883666029</v>
       </c>
       <c r="I4" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="J4" t="n">
-        <v>721.8263970232643</v>
+        <v>721.8263970232641</v>
       </c>
       <c r="K4" t="n">
         <v>721.8263970232642</v>
@@ -26826,7 +26826,7 @@
         <v>426.3794284225095</v>
       </c>
       <c r="O4" t="n">
-        <v>434.1730908768556</v>
+        <v>434.1730908768552</v>
       </c>
       <c r="P4" t="n">
         <v>434.1730908768556</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3835278064219</v>
+        <v>101.3835278064217</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.6833878790145</v>
+        <v>40.68338787901459</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3835278064218</v>
+        <v>101.3835278064217</v>
       </c>
       <c r="M2" t="n">
         <v>81.11207503343763</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.16291744127903</v>
+        <v>38.16291744127909</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618815</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.6316086566614</v>
+        <v>296.6316086566613</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.7478197658481</v>
+        <v>129.7478197658482</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.793662454346133</v>
+        <v>7.793662454345736</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3835278064219</v>
+        <v>101.3835278064217</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.6833878790145</v>
+        <v>40.68338787901459</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="C11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="D11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="E11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="F11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="G11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="H11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="I11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.7516180225035</v>
+        <v>108.7516180225036</v>
       </c>
       <c r="S11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="T11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="U11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="V11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="W11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="X11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>122.1785755065324</v>
+        <v>42.07326597473032</v>
       </c>
       <c r="F12" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="G12" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="H12" t="n">
         <v>107.7396882560888</v>
       </c>
       <c r="I12" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>10.26427957012376</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="W12" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="C13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="D13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="E13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="F13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="G13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="H13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="K13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="L13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="M13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="N13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="O13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="P13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="R13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="S13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="T13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="U13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="V13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="W13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="X13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065323</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="I14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>108.7516180225035</v>
       </c>
       <c r="S14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="W14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.1785755065322</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D15" t="n">
-        <v>122.1785755065322</v>
+        <v>73.01612922059029</v>
       </c>
       <c r="E15" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F15" t="n">
-        <v>122.1785755065322</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>76.79682501022856</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T15" t="n">
-        <v>10.26427957012442</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X15" t="n">
-        <v>122.1785755065322</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="C16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="D16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="E16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="G16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="H16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="I16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="J16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="K16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="L16" t="n">
+        <v>122.1785755065324</v>
+      </c>
+      <c r="M16" t="n">
         <v>122.1785755065322</v>
       </c>
-      <c r="C16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="D16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="E16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="F16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="G16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="H16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="I16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="J16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="K16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="L16" t="n">
-        <v>122.1785755065322</v>
-      </c>
-      <c r="M16" t="n">
-        <v>122.178575506535</v>
-      </c>
       <c r="N16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="O16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="P16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="R16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="S16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="W16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.1785755065322</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="17">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>24.55384368983886</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28691,19 +28691,19 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S18" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.246165760451</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>223.5621033129541</v>
       </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" t="n">
-        <v>99.85807392153774</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28725,16 +28725,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>119.0683107349732</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.6532302850457</v>
       </c>
       <c r="H19" t="n">
         <v>159.5326287828165</v>
@@ -28743,7 +28743,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J19" t="n">
-        <v>72.12828872186661</v>
+        <v>20.69682406707947</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>87.63246926991135</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28934,19 +28934,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>223.5621033129541</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>36.97038889878112</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -28959,7 +28959,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>115.9050882764151</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -28968,7 +28968,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>167.6532302850457</v>
@@ -29019,7 +29019,7 @@
         <v>223.5621033129541</v>
       </c>
       <c r="W22" t="n">
-        <v>223.5621033129541</v>
+        <v>193.3081701795648</v>
       </c>
       <c r="X22" t="n">
         <v>223.5621033129541</v>
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.10751363124351</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>76.79682501022856</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>223.5621033129541</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>223.5621033129541</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>42.98011644065866</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29196,13 +29196,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>116.7206910398098</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -29262,7 +29262,7 @@
         <v>223.5621033129541</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.15818780317647</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="L26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="M26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="N26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="O26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="P26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="R26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>142.0669156854362</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7396882560888</v>
+        <v>13.71686042565472</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>66.29036717992631</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>142.0669156854362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J28" t="n">
-        <v>84.48647660031841</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K28" t="n">
-        <v>142.0669156854362</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>142.0669156854362</v>
+        <v>12.35818787844956</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="N28" t="n">
-        <v>142.0669156854362</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="R28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0669156854362</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="29">
@@ -29551,10 +29551,10 @@
         <v>142.0669156854363</v>
       </c>
       <c r="P29" t="n">
-        <v>142.0669156854361</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854362</v>
       </c>
       <c r="R29" t="n">
         <v>142.0669156854363</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>124.8409128652311</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H30" t="n">
         <v>107.7396882560888</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>142.0669156854363</v>
+        <v>131.5604578551341</v>
       </c>
       <c r="T30" t="n">
         <v>142.0669156854363</v>
@@ -29697,22 +29697,22 @@
         <v>142.0669156854363</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>84.48647660031752</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.0669156854363</v>
+        <v>84.48647660031655</v>
       </c>
       <c r="R31" t="n">
         <v>142.0669156854363</v>
@@ -29846,7 +29846,7 @@
         <v>107.7396882560888</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>66.29036717992666</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>142.0669156854363</v>
+        <v>131.5604578551338</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29928,10 +29928,10 @@
         <v>142.0669156854363</v>
       </c>
       <c r="J34" t="n">
-        <v>72.12828872186661</v>
+        <v>84.48647660031797</v>
       </c>
       <c r="K34" t="n">
-        <v>94.4562171395834</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>142.0669156854363</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>142.0669156854363</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
-        <v>59.96888642430407</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="R34" t="n">
         <v>142.0669156854363</v>
@@ -30068,10 +30068,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>70.81081439129333</v>
       </c>
       <c r="S36" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T36" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>175.7105059126619</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30147,13 +30147,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>85.42781856649933</v>
       </c>
       <c r="E37" t="n">
-        <v>97.4587224888129</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.6532302850457</v>
@@ -30165,7 +30165,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J37" t="n">
-        <v>72.12828872186661</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.96888642430407</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>162.7636035017943</v>
@@ -30302,10 +30302,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -30314,13 +30314,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7412825862149</v>
+        <v>39.58514043823621</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S39" t="n">
-        <v>63.51016250228119</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>223.1789907188739</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30381,16 +30381,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>120.6671963515309</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.6532302850457</v>
@@ -30441,7 +30441,7 @@
         <v>223.1789907188739</v>
       </c>
       <c r="W40" t="n">
-        <v>223.1789907188739</v>
+        <v>173.6630890344877</v>
       </c>
       <c r="X40" t="n">
         <v>223.1789907188739</v>
@@ -30478,7 +30478,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="I41" t="n">
-        <v>215.7699382861697</v>
+        <v>188.9691562032721</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>108.7516180225035</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8577381982423</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="T41" t="n">
         <v>220.6585202811384</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.79682501022856</v>
+        <v>26.59205904195422</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,22 +30587,22 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S42" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>68.27412375892504</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30678,7 +30678,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="W43" t="n">
-        <v>37.58594937562509</v>
+        <v>37.5859493756252</v>
       </c>
       <c r="X43" t="n">
         <v>220.6585202811384</v>
@@ -30715,7 +30715,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="I44" t="n">
-        <v>188.9691562032735</v>
+        <v>184.9101839214861</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.7516180225035</v>
+        <v>112.8105903042909</v>
       </c>
       <c r="S44" t="n">
         <v>220.6585202811384</v>
@@ -30821,22 +30821,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>68.31257246224615</v>
       </c>
       <c r="S45" t="n">
-        <v>11.37898421949654</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T45" t="n">
         <v>197.246165760451</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="V45" t="n">
-        <v>220.6585202811384</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>220.6585202811384</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>167.6532302850457</v>
@@ -30900,10 +30900,10 @@
         <v>59.96888642430407</v>
       </c>
       <c r="R46" t="n">
-        <v>162.7636035017943</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>218.2383203924713</v>
+        <v>197.9293529887524</v>
       </c>
       <c r="T46" t="n">
         <v>220.6585202811384</v>
@@ -30921,7 +30921,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.8351243720596</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191208</v>
       </c>
       <c r="H11" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545698</v>
       </c>
       <c r="I11" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663792</v>
       </c>
       <c r="J11" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401752</v>
       </c>
       <c r="K11" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334591</v>
       </c>
       <c r="L11" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946473</v>
       </c>
       <c r="M11" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921239</v>
       </c>
       <c r="N11" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479659</v>
       </c>
       <c r="O11" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091084</v>
       </c>
       <c r="P11" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240753</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R11" t="n">
-        <v>33.09920467837352</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S11" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T11" t="n">
-        <v>2.306596915281954</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552966</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2819276188274432</v>
+        <v>0.281927618827443</v>
       </c>
       <c r="H12" t="n">
-        <v>2.722827266043991</v>
+        <v>2.72282726604399</v>
       </c>
       <c r="I12" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243106</v>
       </c>
       <c r="J12" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597347</v>
       </c>
       <c r="K12" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741215</v>
       </c>
       <c r="L12" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023056</v>
       </c>
       <c r="M12" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272535</v>
       </c>
       <c r="N12" t="n">
-        <v>73.32467486337086</v>
+        <v>73.3246748633708</v>
       </c>
       <c r="O12" t="n">
-        <v>67.07775236198381</v>
+        <v>67.07775236198377</v>
       </c>
       <c r="P12" t="n">
-        <v>53.83580994960185</v>
+        <v>53.83580994960182</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839431</v>
       </c>
       <c r="R12" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018107</v>
       </c>
       <c r="S12" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255353</v>
       </c>
       <c r="T12" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H13" t="n">
-        <v>2.101443226100331</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I13" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513176</v>
       </c>
       <c r="J13" t="n">
-        <v>16.71055620591233</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K13" t="n">
-        <v>27.46057712634172</v>
+        <v>27.4605771263417</v>
       </c>
       <c r="L13" t="n">
-        <v>35.14008437591492</v>
+        <v>35.1400843759149</v>
       </c>
       <c r="M13" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101017</v>
       </c>
       <c r="N13" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941395</v>
       </c>
       <c r="O13" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P13" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282081</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.7918134515441</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R13" t="n">
-        <v>10.62754416798796</v>
+        <v>10.62754416798795</v>
       </c>
       <c r="S13" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951254</v>
       </c>
       <c r="T13" t="n">
-        <v>1.009896028903021</v>
+        <v>1.00989602890302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01289228973067688</v>
+        <v>0.01289228973067687</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H14" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I14" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J14" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K14" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L14" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M14" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N14" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O14" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P14" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R14" t="n">
         <v>33.09920467837352</v>
@@ -32029,7 +32029,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I15" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J15" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K15" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L15" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M15" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N15" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O15" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P15" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R15" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S15" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T15" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H16" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I16" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J16" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K16" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L16" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M16" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N16" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O16" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P16" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q16" t="n">
         <v>19.7918134515441</v>
@@ -32181,7 +32181,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S16" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T16" t="n">
         <v>1.009896028903021</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H17" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I17" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J17" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K17" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L17" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M17" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N17" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O17" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P17" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R17" t="n">
         <v>33.09920467837352</v>
@@ -32266,7 +32266,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I18" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J18" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K18" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L18" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M18" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N18" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O18" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P18" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R18" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S18" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T18" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H19" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I19" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J19" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K19" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L19" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M19" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N19" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O19" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P19" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q19" t="n">
         <v>19.7918134515441</v>
@@ -32418,7 +32418,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S19" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T19" t="n">
         <v>1.009896028903021</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H20" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I20" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J20" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K20" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L20" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M20" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N20" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O20" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P20" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R20" t="n">
         <v>33.09920467837352</v>
@@ -32503,7 +32503,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I21" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J21" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K21" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L21" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M21" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N21" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O21" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P21" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R21" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S21" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T21" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H22" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I22" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J22" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K22" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L22" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M22" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N22" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O22" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P22" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q22" t="n">
         <v>19.7918134515441</v>
@@ -32655,7 +32655,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S22" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T22" t="n">
         <v>1.009896028903021</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H23" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I23" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J23" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K23" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L23" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M23" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N23" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O23" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P23" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R23" t="n">
         <v>33.09920467837352</v>
@@ -32740,7 +32740,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I24" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J24" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K24" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L24" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M24" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N24" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O24" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P24" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R24" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S24" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T24" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H25" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I25" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J25" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K25" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L25" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M25" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N25" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O25" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P25" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q25" t="n">
         <v>19.7918134515441</v>
@@ -32892,7 +32892,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S25" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T25" t="n">
         <v>1.009896028903021</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H26" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I26" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J26" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K26" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L26" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M26" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N26" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O26" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P26" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R26" t="n">
         <v>33.09920467837352</v>
@@ -32977,7 +32977,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I27" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J27" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K27" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L27" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M27" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N27" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O27" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P27" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R27" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S27" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T27" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H28" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I28" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J28" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K28" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L28" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M28" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N28" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O28" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P28" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q28" t="n">
         <v>19.7918134515441</v>
@@ -33129,7 +33129,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S28" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T28" t="n">
         <v>1.009896028903021</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H29" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I29" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J29" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K29" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L29" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M29" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N29" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O29" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P29" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R29" t="n">
         <v>33.09920467837352</v>
@@ -33214,7 +33214,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I30" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J30" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K30" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L30" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M30" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N30" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O30" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P30" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R30" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S30" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T30" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H31" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I31" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J31" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K31" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L31" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M31" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N31" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O31" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P31" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q31" t="n">
         <v>19.7918134515441</v>
@@ -33366,7 +33366,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S31" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T31" t="n">
         <v>1.009896028903021</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H32" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I32" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J32" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K32" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L32" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M32" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N32" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O32" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P32" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R32" t="n">
         <v>33.09920467837352</v>
@@ -33451,7 +33451,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I33" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J33" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K33" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L33" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M33" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N33" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O33" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P33" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R33" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S33" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T33" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H34" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I34" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J34" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K34" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L34" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M34" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N34" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O34" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P34" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q34" t="n">
         <v>19.7918134515441</v>
@@ -33603,7 +33603,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S34" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T34" t="n">
         <v>1.009896028903021</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H35" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I35" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J35" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K35" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L35" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M35" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N35" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O35" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P35" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R35" t="n">
         <v>33.09920467837352</v>
@@ -33688,7 +33688,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I36" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J36" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K36" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L36" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M36" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N36" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O36" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P36" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R36" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S36" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T36" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H37" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I37" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J37" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K37" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L37" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M37" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N37" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O37" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P37" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q37" t="n">
         <v>19.7918134515441</v>
@@ -33840,7 +33840,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S37" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T37" t="n">
         <v>1.009896028903021</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H38" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I38" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J38" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K38" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L38" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M38" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N38" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O38" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P38" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R38" t="n">
         <v>33.09920467837352</v>
@@ -33925,7 +33925,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I39" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J39" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K39" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L39" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M39" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N39" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O39" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P39" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R39" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S39" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T39" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H40" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I40" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J40" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K40" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L40" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M40" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N40" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O40" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P40" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q40" t="n">
         <v>19.7918134515441</v>
@@ -34077,7 +34077,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S40" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T40" t="n">
         <v>1.009896028903021</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H41" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I41" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J41" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K41" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L41" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M41" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N41" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O41" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P41" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R41" t="n">
         <v>33.09920467837352</v>
@@ -34162,7 +34162,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I42" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J42" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K42" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L42" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M42" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N42" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O42" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P42" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R42" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S42" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T42" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H43" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I43" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J43" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K43" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L43" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M43" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N43" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O43" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P43" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q43" t="n">
         <v>19.7918134515441</v>
@@ -34314,7 +34314,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S43" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T43" t="n">
         <v>1.009896028903021</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5269210543191212</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H44" t="n">
-        <v>5.396330247545701</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I44" t="n">
-        <v>20.31412394663794</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J44" t="n">
-        <v>44.72176583401755</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K44" t="n">
-        <v>67.02633406334596</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L44" t="n">
-        <v>83.15209427946478</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M44" t="n">
-        <v>92.52272657921245</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N44" t="n">
-        <v>94.01984102479666</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O44" t="n">
-        <v>88.78026979091089</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P44" t="n">
-        <v>75.77190626240758</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.90154600460404</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R44" t="n">
         <v>33.09920467837352</v>
@@ -34399,7 +34399,7 @@
         <v>2.306596915281954</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04215368434552969</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>2.722827266043991</v>
       </c>
       <c r="I45" t="n">
-        <v>9.706718455243111</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J45" t="n">
-        <v>26.63597735597349</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K45" t="n">
-        <v>45.52512781741218</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L45" t="n">
-        <v>61.2141525002306</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M45" t="n">
-        <v>71.4340286827254</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N45" t="n">
-        <v>73.32467486337086</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O45" t="n">
-        <v>67.07775236198381</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P45" t="n">
         <v>53.83580994960185</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.98781323839433</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R45" t="n">
-        <v>17.50424286018109</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S45" t="n">
-        <v>5.236681867255356</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T45" t="n">
-        <v>1.136366147817633</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01854786965970022</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2363586450624092</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H46" t="n">
-        <v>2.101443226100331</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I46" t="n">
-        <v>7.107949071513181</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J46" t="n">
         <v>16.71055620591233</v>
       </c>
       <c r="K46" t="n">
-        <v>27.46057712634172</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L46" t="n">
-        <v>35.14008437591492</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M46" t="n">
-        <v>37.0502919710102</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N46" t="n">
-        <v>36.16931883941398</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O46" t="n">
-        <v>33.408220122094</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P46" t="n">
-        <v>28.58650376282083</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q46" t="n">
         <v>19.7918134515441</v>
@@ -34551,7 +34551,7 @@
         <v>10.62754416798796</v>
       </c>
       <c r="S46" t="n">
-        <v>4.119086568951257</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T46" t="n">
         <v>1.009896028903021</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.06248869945513</v>
+        <v>44.0624886994551</v>
       </c>
       <c r="K11" t="n">
-        <v>189.5499583685013</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L11" t="n">
         <v>287.6475028161956</v>
       </c>
       <c r="M11" t="n">
-        <v>335.4292240151674</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N11" t="n">
-        <v>325.182905406584</v>
+        <v>325.1829054065839</v>
       </c>
       <c r="O11" t="n">
-        <v>260.4667021680215</v>
+        <v>255.776006189079</v>
       </c>
       <c r="P11" t="n">
-        <v>180.2996959204184</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331661</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.10396810999864</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>186.1735713104939</v>
+        <v>131.1569348498799</v>
       </c>
       <c r="L12" t="n">
-        <v>311.7975913304508</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1866119087575</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N12" t="n">
         <v>425.1947883666029</v>
       </c>
       <c r="O12" t="n">
-        <v>191.1570722815498</v>
+        <v>337.6632260764491</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>254.4120421061644</v>
       </c>
       <c r="Q12" t="n">
         <v>117.9859627498064</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.05028678466574</v>
+        <v>50.05028678466571</v>
       </c>
       <c r="K13" t="n">
         <v>134.8647429150407</v>
@@ -35586,7 +35586,7 @@
         <v>156.887101168037</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20968908222828</v>
+        <v>62.20968908222824</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.06248869945513</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K14" t="n">
-        <v>189.5499583685013</v>
+        <v>184.8592623895584</v>
       </c>
       <c r="L14" t="n">
         <v>287.6475028161956</v>
       </c>
       <c r="M14" t="n">
-        <v>330.7385280362241</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N14" t="n">
         <v>325.182905406584</v>
@@ -35665,7 +35665,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K15" t="n">
         <v>186.1735713104939</v>
@@ -35735,7 +35735,7 @@
         <v>417.1866119087575</v>
       </c>
       <c r="N15" t="n">
-        <v>176.3665233253441</v>
+        <v>24.27659246553926</v>
       </c>
       <c r="O15" t="n">
         <v>337.6632260764492</v>
@@ -35744,7 +35744,7 @@
         <v>254.4120421061645</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.05028678466563</v>
+        <v>50.05028678466574</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8647429150406</v>
+        <v>134.8647429150407</v>
       </c>
       <c r="L16" t="n">
-        <v>194.7797901114564</v>
+        <v>194.7797901114565</v>
       </c>
       <c r="M16" t="n">
-        <v>209.4262754744537</v>
+        <v>209.426275474451</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5449140105841</v>
+        <v>212.5449140105842</v>
       </c>
       <c r="O16" t="n">
-        <v>190.1550036585973</v>
+        <v>190.1550036585974</v>
       </c>
       <c r="P16" t="n">
-        <v>156.8871011680369</v>
+        <v>156.887101168037</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20968908222817</v>
+        <v>62.20968908222828</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>39.37179272051185</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K17" t="n">
-        <v>189.5499583685013</v>
+        <v>184.8592623895584</v>
       </c>
       <c r="L17" t="n">
         <v>287.6475028161956</v>
       </c>
       <c r="M17" t="n">
-        <v>335.4292240151674</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N17" t="n">
         <v>325.182905406584</v>
@@ -35902,7 +35902,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>186.1735713104939</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>311.7975913304508</v>
       </c>
       <c r="M18" t="n">
-        <v>50.37238411769228</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N18" t="n">
-        <v>425.1947883666029</v>
+        <v>362.5400946358383</v>
       </c>
       <c r="O18" t="n">
         <v>337.6632260764492</v>
@@ -35981,7 +35981,7 @@
         <v>254.4120421061645</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.9859627498064</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.68616740850837</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L19" t="n">
         <v>72.60121460492419</v>
       </c>
       <c r="M19" t="n">
-        <v>87.24769996791876</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N19" t="n">
-        <v>90.36633850405187</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O19" t="n">
-        <v>67.97642815206507</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P19" t="n">
-        <v>34.70852566150467</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.06248869945513</v>
+        <v>39.37179272051225</v>
       </c>
       <c r="K20" t="n">
-        <v>184.859262389558</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L20" t="n">
         <v>287.6475028161956</v>
       </c>
       <c r="M20" t="n">
-        <v>335.4292240151674</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N20" t="n">
         <v>325.182905406584</v>
@@ -36139,7 +36139,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L21" t="n">
-        <v>131.1569348498796</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M21" t="n">
         <v>417.1866119087575</v>
       </c>
       <c r="N21" t="n">
-        <v>425.1947883666029</v>
+        <v>24.27659246553926</v>
       </c>
       <c r="O21" t="n">
         <v>337.6632260764492</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.68616740850837</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L22" t="n">
         <v>72.60121460492419</v>
       </c>
       <c r="M22" t="n">
-        <v>87.24769996791876</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N22" t="n">
-        <v>90.36633850405187</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O22" t="n">
-        <v>67.97642815206507</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P22" t="n">
-        <v>34.70852566150467</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.37179272051208</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K23" t="n">
-        <v>189.5499583685013</v>
+        <v>184.8592623895577</v>
       </c>
       <c r="L23" t="n">
         <v>287.6475028161956</v>
       </c>
       <c r="M23" t="n">
-        <v>335.4292240151674</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N23" t="n">
         <v>325.182905406584</v>
@@ -36376,7 +36376,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>417.1866119087575</v>
       </c>
       <c r="N24" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="O24" t="n">
         <v>337.6632260764492</v>
       </c>
       <c r="P24" t="n">
-        <v>191.7573483753999</v>
+        <v>191.7573483753994</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.68616740850837</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L25" t="n">
         <v>72.60121460492419</v>
       </c>
       <c r="M25" t="n">
-        <v>87.24769996791876</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N25" t="n">
-        <v>90.36633850405187</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O25" t="n">
-        <v>67.97642815206507</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P25" t="n">
-        <v>34.70852566150467</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1294043848914</v>
+        <v>186.1294043848915</v>
       </c>
       <c r="K26" t="n">
-        <v>331.6168740539375</v>
+        <v>331.6168740539376</v>
       </c>
       <c r="L26" t="n">
         <v>429.7144185016319</v>
       </c>
       <c r="M26" t="n">
-        <v>477.4961397006036</v>
+        <v>477.4961397006037</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2498210920202</v>
+        <v>467.2498210920203</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5336178534577</v>
+        <v>402.5336178534578</v>
       </c>
       <c r="P26" t="n">
-        <v>327.057307584798</v>
+        <v>327.0573075847981</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0280043487529</v>
+        <v>203.028004348753</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31529766293269</v>
+        <v>33.3152976629328</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.10396810999864</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K27" t="n">
         <v>186.1735713104939</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.35818787845181</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7530830939446</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L28" t="n">
-        <v>214.6681302903604</v>
+        <v>84.95940248337375</v>
       </c>
       <c r="M28" t="n">
-        <v>87.24769996791876</v>
+        <v>229.3146156533551</v>
       </c>
       <c r="N28" t="n">
-        <v>232.4332541894881</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O28" t="n">
-        <v>67.97642815206507</v>
+        <v>210.0433438375014</v>
       </c>
       <c r="P28" t="n">
-        <v>34.70852566150467</v>
+        <v>176.775441346941</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.09802926113217</v>
+        <v>82.09802926113228</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>402.5336178534578</v>
       </c>
       <c r="P29" t="n">
-        <v>327.0573075847979</v>
+        <v>327.057307584798</v>
       </c>
       <c r="Q29" t="n">
         <v>203.0280043487529</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31529766293275</v>
+        <v>33.31529766293277</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.10396810999864</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K30" t="n">
         <v>186.1735713104939</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.93862696356969</v>
+        <v>69.93862696356972</v>
       </c>
       <c r="K31" t="n">
         <v>154.7530830939447</v>
       </c>
       <c r="L31" t="n">
-        <v>72.60121460492419</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M31" t="n">
-        <v>87.24769996791876</v>
+        <v>229.3146156533551</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4332541894881</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O31" t="n">
-        <v>67.97642815206507</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P31" t="n">
-        <v>119.1950022618222</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.09802926113223</v>
+        <v>24.51759017601248</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.10396810999864</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K33" t="n">
         <v>186.1735713104939</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>12.35818787845136</v>
       </c>
       <c r="K34" t="n">
-        <v>107.1423845480918</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L34" t="n">
         <v>214.6681302903605</v>
@@ -37236,16 +37236,16 @@
         <v>229.314615653355</v>
       </c>
       <c r="N34" t="n">
-        <v>90.36633850405187</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0433438375013</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P34" t="n">
-        <v>34.70852566150467</v>
+        <v>176.7754413469409</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.0980292611322</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.06248869945513</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K35" t="n">
         <v>189.5499583685013</v>
@@ -37312,7 +37312,7 @@
         <v>287.6475028161956</v>
       </c>
       <c r="M35" t="n">
-        <v>335.4292240151674</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N35" t="n">
         <v>325.182905406584</v>
@@ -37324,7 +37324,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.10396810999864</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>186.1735713104939</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>311.7975913304508</v>
       </c>
       <c r="M36" t="n">
-        <v>417.1866119087575</v>
+        <v>358.0379741010294</v>
       </c>
       <c r="N36" t="n">
-        <v>146.9532511942888</v>
+        <v>426.3794284225095</v>
       </c>
       <c r="O36" t="n">
         <v>337.6632260764492</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.68616740850837</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L37" t="n">
         <v>72.60121460492419</v>
       </c>
       <c r="M37" t="n">
-        <v>87.24769996791876</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N37" t="n">
-        <v>90.36633850405187</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O37" t="n">
-        <v>67.97642815206507</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P37" t="n">
-        <v>34.70852566150467</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.06248869945513</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K38" t="n">
         <v>189.5499583685013</v>
@@ -37549,7 +37549,7 @@
         <v>287.6475028161956</v>
       </c>
       <c r="M38" t="n">
-        <v>335.4292240151674</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N38" t="n">
         <v>325.182905406584</v>
@@ -37561,7 +37561,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M39" t="n">
-        <v>358.0379741010293</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N39" t="n">
         <v>426.3794284225095</v>
@@ -37637,7 +37637,7 @@
         <v>337.6632260764492</v>
       </c>
       <c r="P39" t="n">
-        <v>254.4120421061645</v>
+        <v>195.2634042984362</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.68616740850837</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L40" t="n">
         <v>72.60121460492419</v>
       </c>
       <c r="M40" t="n">
-        <v>87.24769996791876</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N40" t="n">
-        <v>90.36633850405187</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O40" t="n">
-        <v>67.97642815206507</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P40" t="n">
-        <v>34.70852566150467</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.85975436468363</v>
+        <v>4.058972281786002</v>
       </c>
       <c r="J41" t="n">
-        <v>44.06248869945513</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K41" t="n">
         <v>189.5499583685013</v>
@@ -37786,7 +37786,7 @@
         <v>287.6475028161956</v>
       </c>
       <c r="M41" t="n">
-        <v>335.4292240151674</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N41" t="n">
         <v>325.182905406584</v>
@@ -37798,13 +37798,13 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>26.80078208289616</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K42" t="n">
         <v>186.1735713104939</v>
@@ -37868,7 +37868,7 @@
         <v>417.1866119087575</v>
       </c>
       <c r="N42" t="n">
-        <v>93.93101091916471</v>
+        <v>59.8270428091644</v>
       </c>
       <c r="O42" t="n">
         <v>337.6632260764492</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.68616740850837</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L43" t="n">
         <v>72.60121460492419</v>
       </c>
       <c r="M43" t="n">
-        <v>87.24769996791876</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N43" t="n">
-        <v>90.36633850405187</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O43" t="n">
-        <v>67.97642815206507</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P43" t="n">
-        <v>34.70852566150467</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.058972281787394</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.06248869945513</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K44" t="n">
         <v>189.5499583685013</v>
@@ -38023,7 +38023,7 @@
         <v>287.6475028161956</v>
       </c>
       <c r="M44" t="n">
-        <v>335.4292240151674</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N44" t="n">
         <v>325.182905406584</v>
@@ -38035,13 +38035,13 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.96108866331665</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.05897228178738</v>
       </c>
       <c r="S44" t="n">
-        <v>26.80078208289613</v>
+        <v>26.80078208289616</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>157.7290826832537</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M45" t="n">
         <v>417.1866119087575</v>
@@ -38111,10 +38111,10 @@
         <v>337.6632260764492</v>
       </c>
       <c r="P45" t="n">
-        <v>254.4120421061645</v>
+        <v>218.3294962087736</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.9859627498064</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.68616740850837</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L46" t="n">
         <v>72.60121460492419</v>
       </c>
       <c r="M46" t="n">
-        <v>87.24769996791876</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N46" t="n">
-        <v>90.36633850405187</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O46" t="n">
-        <v>67.97642815206507</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P46" t="n">
-        <v>34.70852566150467</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
